--- a/IexCloud/recommended.xlsx
+++ b/IexCloud/recommended.xlsx
@@ -1937,13 +1937,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>131.73</v>
+        <v>131.33</v>
       </c>
       <c r="C2" s="2">
-        <v>41722797842</v>
+        <v>40854061316</v>
       </c>
       <c r="D2" s="3">
-        <v>150</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1951,13 +1951,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>21.72</v>
+        <v>21.41</v>
       </c>
       <c r="C3" s="2">
-        <v>14345210907</v>
+        <v>14313388145</v>
       </c>
       <c r="D3" s="3">
-        <v>911</v>
+        <v>9248</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1965,13 +1965,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>212.55</v>
+        <v>212.864</v>
       </c>
       <c r="C4" s="2">
-        <v>13441516721</v>
+        <v>13436908608</v>
       </c>
       <c r="D4" s="3">
-        <v>93</v>
+        <v>930</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1979,13 +1979,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>130.62</v>
+        <v>126.55</v>
       </c>
       <c r="C5" s="2">
-        <v>2101610673621</v>
+        <v>2158569773137</v>
       </c>
       <c r="D5" s="3">
-        <v>151</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1993,13 +1993,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>117.49</v>
+        <v>118.6</v>
       </c>
       <c r="C6" s="2">
-        <v>212843683838</v>
+        <v>212456751426</v>
       </c>
       <c r="D6" s="3">
-        <v>168</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2007,13 +2007,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>125.7</v>
+        <v>124.42</v>
       </c>
       <c r="C7" s="2">
-        <v>24728729188</v>
+        <v>24722475474</v>
       </c>
       <c r="D7" s="3">
-        <v>157</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2021,13 +2021,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>290</v>
+        <v>269.56</v>
       </c>
       <c r="C8" s="2">
-        <v>13065284499</v>
+        <v>12315797454</v>
       </c>
       <c r="D8" s="3">
-        <v>68</v>
+        <v>734</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2035,13 +2035,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>123.21</v>
+        <v>120.16</v>
       </c>
       <c r="C9" s="2">
-        <v>211690596178</v>
+        <v>210782732714</v>
       </c>
       <c r="D9" s="3">
-        <v>160</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2049,13 +2049,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>297.99</v>
+        <v>300.93</v>
       </c>
       <c r="C10" s="2">
-        <v>199927860225</v>
+        <v>194627739584</v>
       </c>
       <c r="D10" s="3">
-        <v>66</v>
+        <v>658</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2063,13 +2063,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>501.92</v>
+        <v>480.6</v>
       </c>
       <c r="C11" s="2">
-        <v>232911441331</v>
+        <v>238479232603</v>
       </c>
       <c r="D11" s="3">
-        <v>39</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2077,13 +2077,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>157.9</v>
+        <v>152.22</v>
       </c>
       <c r="C12" s="2">
-        <v>57279095334</v>
+        <v>55918860611</v>
       </c>
       <c r="D12" s="3">
-        <v>125</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2091,13 +2091,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>69.34</v>
+        <v>69.73</v>
       </c>
       <c r="C13" s="2">
-        <v>38865710086</v>
+        <v>37857366339</v>
       </c>
       <c r="D13" s="3">
-        <v>285</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2105,13 +2105,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>197.31</v>
+        <v>200.06</v>
       </c>
       <c r="C14" s="2">
-        <v>85463187057</v>
+        <v>85355767692</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>989</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2119,13 +2119,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>286.3</v>
+        <v>276.7</v>
       </c>
       <c r="C15" s="2">
-        <v>61169635341</v>
+        <v>60819934923</v>
       </c>
       <c r="D15" s="3">
-        <v>69</v>
+        <v>715</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2133,13 +2133,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>84.08</v>
+        <v>87.23</v>
       </c>
       <c r="C16" s="2">
-        <v>21610710578</v>
+        <v>22306873852</v>
       </c>
       <c r="D16" s="3">
-        <v>235</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2147,13 +2147,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>89.54000000000001</v>
+        <v>89.919</v>
       </c>
       <c r="C17" s="2">
-        <v>44581780459</v>
+        <v>43493598383</v>
       </c>
       <c r="D17" s="3">
-        <v>221</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2161,13 +2161,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>26.38</v>
+        <v>25.5</v>
       </c>
       <c r="C18" s="2">
-        <v>17313863052</v>
+        <v>16999055987</v>
       </c>
       <c r="D18" s="3">
-        <v>750</v>
+        <v>7765</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2175,13 +2175,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>56.94</v>
+        <v>55.812</v>
       </c>
       <c r="C19" s="2">
-        <v>39400950840</v>
+        <v>38423989775</v>
       </c>
       <c r="D19" s="3">
-        <v>347</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2189,13 +2189,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>50.95</v>
+        <v>52.37</v>
       </c>
       <c r="C20" s="2">
-        <v>44130201140</v>
+        <v>44347499925</v>
       </c>
       <c r="D20" s="3">
-        <v>388</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2203,13 +2203,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>7.07</v>
+        <v>6.749</v>
       </c>
       <c r="C21" s="2">
-        <v>1051344637</v>
+        <v>1043121977</v>
       </c>
       <c r="D21" s="3">
-        <v>2800</v>
+        <v>29340</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2217,13 +2217,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>158.42</v>
+        <v>161.47</v>
       </c>
       <c r="C22" s="2">
-        <v>9829100219</v>
+        <v>9803767063</v>
       </c>
       <c r="D22" s="3">
-        <v>124</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2231,13 +2231,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>152.18</v>
+        <v>152.05</v>
       </c>
       <c r="C23" s="2">
-        <v>29182398274</v>
+        <v>29913296221</v>
       </c>
       <c r="D23" s="3">
-        <v>130</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2245,13 +2245,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>113.67</v>
+        <v>116.87</v>
       </c>
       <c r="C24" s="2">
-        <v>19010404535</v>
+        <v>18884992036</v>
       </c>
       <c r="D24" s="3">
-        <v>174</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2259,13 +2259,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>165.5</v>
+        <v>158.1</v>
       </c>
       <c r="C25" s="2">
-        <v>19665673915</v>
+        <v>18996489491</v>
       </c>
       <c r="D25" s="3">
-        <v>119</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2273,13 +2273,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>567.4</v>
+        <v>581.47</v>
       </c>
       <c r="C26" s="2">
-        <v>45886788795</v>
+        <v>44704255762</v>
       </c>
       <c r="D26" s="3">
-        <v>34</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2287,13 +2287,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>67.67</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="C27" s="2">
-        <v>8444446449</v>
+        <v>8746164942</v>
       </c>
       <c r="D27" s="3">
-        <v>292</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2301,13 +2301,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>140.18</v>
+        <v>141</v>
       </c>
       <c r="C28" s="2">
-        <v>40610940516</v>
+        <v>42712420857</v>
       </c>
       <c r="D28" s="3">
-        <v>141</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2315,13 +2315,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>141.18</v>
+        <v>139.97</v>
       </c>
       <c r="C29" s="2">
-        <v>12612673503</v>
+        <v>12763327541</v>
       </c>
       <c r="D29" s="3">
-        <v>140</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2329,13 +2329,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>176.54</v>
+        <v>173.76</v>
       </c>
       <c r="C30" s="2">
-        <v>39016804707</v>
+        <v>39497693667</v>
       </c>
       <c r="D30" s="3">
-        <v>112</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2343,13 +2343,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>124.45</v>
+        <v>121.44</v>
       </c>
       <c r="C31" s="2">
-        <v>114806856390</v>
+        <v>114172508355</v>
       </c>
       <c r="D31" s="3">
-        <v>159</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2357,13 +2357,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>12.9</v>
+        <v>12.67</v>
       </c>
       <c r="C32" s="2">
-        <v>19985282814</v>
+        <v>19599113636</v>
       </c>
       <c r="D32" s="3">
-        <v>1535</v>
+        <v>15629</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2371,13 +2371,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>77.02</v>
+        <v>73.488</v>
       </c>
       <c r="C33" s="2">
-        <v>97943171591</v>
+        <v>90902593670</v>
       </c>
       <c r="D33" s="3">
-        <v>257</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2385,13 +2385,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>136.34</v>
+        <v>138.26</v>
       </c>
       <c r="C34" s="2">
-        <v>31573827759</v>
+        <v>31790156180</v>
       </c>
       <c r="D34" s="3">
-        <v>145</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2399,13 +2399,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>254.9</v>
+        <v>254.47</v>
       </c>
       <c r="C35" s="2">
-        <v>145572250764</v>
+        <v>152763502313</v>
       </c>
       <c r="D35" s="3">
-        <v>77</v>
+        <v>778</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2413,13 +2413,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>258.83</v>
+        <v>258.213</v>
       </c>
       <c r="C36" s="2">
-        <v>31495801051</v>
+        <v>30637708572</v>
       </c>
       <c r="D36" s="3">
-        <v>76</v>
+        <v>766</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2427,13 +2427,13 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>259.05</v>
+        <v>250.187</v>
       </c>
       <c r="C37" s="2">
-        <v>115096351375</v>
+        <v>113462128290</v>
       </c>
       <c r="D37" s="3">
-        <v>76</v>
+        <v>791</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2441,13 +2441,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>3381.87</v>
+        <v>3241.01</v>
       </c>
       <c r="C38" s="2">
-        <v>1655721564131</v>
+        <v>1673419222011</v>
       </c>
       <c r="D38" s="3">
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2455,13 +2455,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>342.58</v>
+        <v>328.641</v>
       </c>
       <c r="C39" s="2">
-        <v>25612416441</v>
+        <v>25579510357</v>
       </c>
       <c r="D39" s="3">
-        <v>57</v>
+        <v>602</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2469,13 +2469,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>323.24</v>
+        <v>329.28</v>
       </c>
       <c r="C40" s="2">
-        <v>29318278704</v>
+        <v>27795314199</v>
       </c>
       <c r="D40" s="3">
-        <v>61</v>
+        <v>601</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2483,13 +2483,13 @@
         <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>401.63</v>
+        <v>411.593</v>
       </c>
       <c r="C41" s="2">
-        <v>98374923983</v>
+        <v>99387521948</v>
       </c>
       <c r="D41" s="3">
-        <v>49</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2497,13 +2497,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>259.74</v>
+        <v>262.57</v>
       </c>
       <c r="C42" s="2">
-        <v>58647284685</v>
+        <v>59085379557</v>
       </c>
       <c r="D42" s="3">
-        <v>76</v>
+        <v>754</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2511,13 +2511,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>70.93000000000001</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="C43" s="2">
-        <v>11740832178</v>
+        <v>11775916338</v>
       </c>
       <c r="D43" s="3">
-        <v>279</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2525,13 +2525,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>22.08</v>
+        <v>21.19</v>
       </c>
       <c r="C44" s="2">
-        <v>8272271484</v>
+        <v>7858181070</v>
       </c>
       <c r="D44" s="3">
-        <v>896</v>
+        <v>9344</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2539,13 +2539,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>306.62</v>
+        <v>310.88</v>
       </c>
       <c r="C45" s="2">
-        <v>69471077314</v>
+        <v>66455475896</v>
       </c>
       <c r="D45" s="3">
-        <v>64</v>
+        <v>636</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2553,13 +2553,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>66.93000000000001</v>
+        <v>66.59399999999999</v>
       </c>
       <c r="C46" s="2">
-        <v>41540408478</v>
+        <v>40976670241</v>
       </c>
       <c r="D46" s="3">
-        <v>295</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2567,13 +2567,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>142.03</v>
+        <v>138.5</v>
       </c>
       <c r="C47" s="2">
-        <v>39479231902</v>
+        <v>38695664327</v>
       </c>
       <c r="D47" s="3">
-        <v>139</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2581,13 +2581,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>179.44</v>
+        <v>180.82</v>
       </c>
       <c r="C48" s="2">
-        <v>26117473745</v>
+        <v>26325283423</v>
       </c>
       <c r="D48" s="3">
-        <v>110</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2595,13 +2595,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>103.05</v>
+        <v>102.8</v>
       </c>
       <c r="C49" s="2">
-        <v>13300181747</v>
+        <v>13433876759</v>
       </c>
       <c r="D49" s="3">
-        <v>192</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2609,13 +2609,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>97.87</v>
+        <v>94.53</v>
       </c>
       <c r="C50" s="2">
-        <v>77551371300</v>
+        <v>73702323868</v>
       </c>
       <c r="D50" s="3">
-        <v>202</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2623,13 +2623,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>204.06</v>
+        <v>197.64</v>
       </c>
       <c r="C51" s="2">
-        <v>27838017693</v>
+        <v>27603291759</v>
       </c>
       <c r="D51" s="3">
-        <v>97</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2637,13 +2637,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>452.37</v>
+        <v>449.22</v>
       </c>
       <c r="C52" s="2">
-        <v>185422805621</v>
+        <v>182394523652</v>
       </c>
       <c r="D52" s="3">
-        <v>43</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2651,13 +2651,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>223.6</v>
+        <v>227.79</v>
       </c>
       <c r="C53" s="2">
-        <v>18136287892</v>
+        <v>18536917185</v>
       </c>
       <c r="D53" s="3">
-        <v>88</v>
+        <v>869</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2665,13 +2665,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>158.4</v>
+        <v>155.01</v>
       </c>
       <c r="C54" s="2">
-        <v>29158837265</v>
+        <v>27986611277</v>
       </c>
       <c r="D54" s="3">
-        <v>125</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2679,13 +2679,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>156.06</v>
+        <v>159.83</v>
       </c>
       <c r="C55" s="2">
-        <v>125793705937</v>
+        <v>128751105790</v>
       </c>
       <c r="D55" s="3">
-        <v>126</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2693,13 +2693,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="2">
-        <v>1519.35</v>
+        <v>1607.77</v>
       </c>
       <c r="C56" s="2">
-        <v>33669336608</v>
+        <v>35506664619</v>
       </c>
       <c r="D56" s="3">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2707,13 +2707,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="2">
-        <v>234.2</v>
+        <v>225.88</v>
       </c>
       <c r="C57" s="2">
-        <v>137268624589</v>
+        <v>132491167913</v>
       </c>
       <c r="D57" s="3">
-        <v>84</v>
+        <v>876</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2721,13 +2721,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="2">
-        <v>42.92</v>
+        <v>42.52</v>
       </c>
       <c r="C58" s="2">
-        <v>371829254663</v>
+        <v>369101336578</v>
       </c>
       <c r="D58" s="3">
-        <v>461</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2735,13 +2735,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>83.83</v>
+        <v>84.342</v>
       </c>
       <c r="C59" s="2">
-        <v>42115158707</v>
+        <v>43245986479</v>
       </c>
       <c r="D59" s="3">
-        <v>236</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2749,13 +2749,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>126.71</v>
+        <v>124.4</v>
       </c>
       <c r="C60" s="2">
-        <v>31153441480</v>
+        <v>31363330864</v>
       </c>
       <c r="D60" s="3">
-        <v>156</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2763,13 +2763,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>249.4</v>
+        <v>255.86</v>
       </c>
       <c r="C61" s="2">
-        <v>70485859646</v>
+        <v>73611816302</v>
       </c>
       <c r="D61" s="3">
-        <v>79</v>
+        <v>773</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2777,13 +2777,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>35.46</v>
+        <v>34.36</v>
       </c>
       <c r="C62" s="2">
-        <v>17881924648</v>
+        <v>17687300255</v>
       </c>
       <c r="D62" s="3">
-        <v>558</v>
+        <v>5763</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2791,13 +2791,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="2">
-        <v>81.11</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="C63" s="2">
-        <v>36972157771</v>
+        <v>37935790958</v>
       </c>
       <c r="D63" s="3">
-        <v>244</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2805,13 +2805,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>289.83</v>
+        <v>288.9</v>
       </c>
       <c r="C64" s="2">
-        <v>42341719272</v>
+        <v>42554580244</v>
       </c>
       <c r="D64" s="3">
-        <v>68</v>
+        <v>685</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2819,13 +2819,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>620.98</v>
+        <v>608.26</v>
       </c>
       <c r="C65" s="2">
-        <v>18208786005</v>
+        <v>18449750570</v>
       </c>
       <c r="D65" s="3">
-        <v>31</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2833,13 +2833,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>52.94</v>
+        <v>52.37</v>
       </c>
       <c r="C66" s="2">
-        <v>46199905704</v>
+        <v>47307739199</v>
       </c>
       <c r="D66" s="3">
-        <v>374</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2847,13 +2847,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>2263.79</v>
+        <v>2307.91</v>
       </c>
       <c r="C67" s="2">
-        <v>95000646275</v>
+        <v>94518353636</v>
       </c>
       <c r="D67" s="3">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2861,13 +2861,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>25.45</v>
+        <v>24.53</v>
       </c>
       <c r="C68" s="2">
-        <v>26761889911</v>
+        <v>25474991682</v>
       </c>
       <c r="D68" s="3">
-        <v>778</v>
+        <v>8072</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2875,13 +2875,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>845.7</v>
+        <v>866.99</v>
       </c>
       <c r="C69" s="2">
-        <v>131626489178</v>
+        <v>133193976891</v>
       </c>
       <c r="D69" s="3">
-        <v>23</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2889,13 +2889,13 @@
         <v>72</v>
       </c>
       <c r="B70" s="2">
-        <v>90.7</v>
+        <v>89.56999999999999</v>
       </c>
       <c r="C70" s="2">
-        <v>30524796476</v>
+        <v>30283309973</v>
       </c>
       <c r="D70" s="3">
-        <v>218</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2903,13 +2903,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>66.97</v>
+        <v>65.48</v>
       </c>
       <c r="C71" s="2">
-        <v>146482935972</v>
+        <v>147879728499</v>
       </c>
       <c r="D71" s="3">
-        <v>295</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2917,13 +2917,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>163.92</v>
+        <v>169.52</v>
       </c>
       <c r="C72" s="2">
-        <v>19568571856</v>
+        <v>19122965519</v>
       </c>
       <c r="D72" s="3">
-        <v>120</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2931,13 +2931,13 @@
         <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>290.03</v>
+        <v>290</v>
       </c>
       <c r="C73" s="2">
-        <v>662103957756</v>
+        <v>658577407163</v>
       </c>
       <c r="D73" s="3">
-        <v>68</v>
+        <v>682</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2945,13 +2945,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>43.72</v>
+        <v>43.383</v>
       </c>
       <c r="C74" s="2">
-        <v>62310525656</v>
+        <v>61018505590</v>
       </c>
       <c r="D74" s="3">
-        <v>452</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2959,13 +2959,13 @@
         <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>52.5</v>
+        <v>51.46</v>
       </c>
       <c r="C75" s="2">
-        <v>12682877621</v>
+        <v>12586567559</v>
       </c>
       <c r="D75" s="3">
-        <v>377</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2973,13 +2973,13 @@
         <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>111.74</v>
+        <v>110.72</v>
       </c>
       <c r="C76" s="2">
-        <v>16989916261</v>
+        <v>16965304982</v>
       </c>
       <c r="D76" s="3">
-        <v>177</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2987,13 +2987,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>76.08</v>
+        <v>76.56</v>
       </c>
       <c r="C77" s="2">
-        <v>159426943198</v>
+        <v>160770062255</v>
       </c>
       <c r="D77" s="3">
-        <v>260</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3001,13 +3001,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>39.65</v>
+        <v>38.74</v>
       </c>
       <c r="C78" s="2">
-        <v>18600140613</v>
+        <v>18722111319</v>
       </c>
       <c r="D78" s="3">
-        <v>499</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3015,13 +3015,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>58.11</v>
+        <v>58.95</v>
       </c>
       <c r="C79" s="2">
-        <v>16377473582</v>
+        <v>16997060163</v>
       </c>
       <c r="D79" s="3">
-        <v>340</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3029,13 +3029,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>46.4</v>
+        <v>45.42</v>
       </c>
       <c r="C80" s="2">
-        <v>38960887736</v>
+        <v>39444614735</v>
       </c>
       <c r="D80" s="3">
-        <v>426</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3043,13 +3043,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>245.8</v>
+        <v>251.08</v>
       </c>
       <c r="C81" s="2">
-        <v>132282240506</v>
+        <v>138193117615</v>
       </c>
       <c r="D81" s="3">
-        <v>80</v>
+        <v>788</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3057,13 +3057,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>170.78</v>
+        <v>172.05</v>
       </c>
       <c r="C82" s="2">
-        <v>75827979039</v>
+        <v>76331298735</v>
       </c>
       <c r="D82" s="3">
-        <v>115</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3071,13 +3071,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>111.64</v>
+        <v>115.5</v>
       </c>
       <c r="C83" s="2">
-        <v>11875470978</v>
+        <v>12687963358</v>
       </c>
       <c r="D83" s="3">
-        <v>177</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3085,13 +3085,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>88.37</v>
+        <v>88.76000000000001</v>
       </c>
       <c r="C84" s="2">
-        <v>29293177054</v>
+        <v>30437536706</v>
       </c>
       <c r="D84" s="3">
-        <v>224</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3099,13 +3099,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>190.44</v>
+        <v>187.18</v>
       </c>
       <c r="C85" s="2">
-        <v>79776267611</v>
+        <v>81553236088</v>
       </c>
       <c r="D85" s="3">
-        <v>103</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3113,13 +3113,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>27.05</v>
+        <v>25.35</v>
       </c>
       <c r="C86" s="2">
-        <v>29570676322</v>
+        <v>28873688859</v>
       </c>
       <c r="D86" s="3">
-        <v>732</v>
+        <v>7811</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3127,13 +3127,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>126.25</v>
+        <v>127.96</v>
       </c>
       <c r="C87" s="2">
-        <v>35693011989</v>
+        <v>34841911187</v>
       </c>
       <c r="D87" s="3">
-        <v>156</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3141,13 +3141,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>171.93</v>
+        <v>177.65</v>
       </c>
       <c r="C88" s="2">
-        <v>24457434091</v>
+        <v>24442916416</v>
       </c>
       <c r="D88" s="3">
-        <v>115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3155,13 +3155,13 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>173.9</v>
+        <v>170.55</v>
       </c>
       <c r="C89" s="2">
-        <v>19788367079</v>
+        <v>18877264195</v>
       </c>
       <c r="D89" s="3">
-        <v>113</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3169,13 +3169,13 @@
         <v>92</v>
       </c>
       <c r="B90" s="2">
-        <v>79.37</v>
+        <v>78.52</v>
       </c>
       <c r="C90" s="2">
-        <v>24037232855</v>
+        <v>24225402244</v>
       </c>
       <c r="D90" s="3">
-        <v>249</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3183,13 +3183,13 @@
         <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>56.68</v>
+        <v>54.02</v>
       </c>
       <c r="C91" s="2">
-        <v>12063051732</v>
+        <v>11883555291</v>
       </c>
       <c r="D91" s="3">
-        <v>349</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3197,13 +3197,13 @@
         <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>49.21</v>
+        <v>51.62</v>
       </c>
       <c r="C92" s="2">
-        <v>21112157155</v>
+        <v>21359500387</v>
       </c>
       <c r="D92" s="3">
-        <v>402</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3211,13 +3211,13 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>92.23999999999999</v>
+        <v>89.095</v>
       </c>
       <c r="C93" s="2">
-        <v>22028919290</v>
+        <v>22770362606</v>
       </c>
       <c r="D93" s="3">
-        <v>214</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3225,13 +3225,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>99.53</v>
+        <v>102.83</v>
       </c>
       <c r="C94" s="2">
-        <v>13675640942</v>
+        <v>13423076534</v>
       </c>
       <c r="D94" s="3">
-        <v>198</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3239,13 +3239,13 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>713.78</v>
+        <v>695.21</v>
       </c>
       <c r="C95" s="2">
-        <v>129738925728</v>
+        <v>129880162970</v>
       </c>
       <c r="D95" s="3">
-        <v>27</v>
+        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3253,13 +3253,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>266.52</v>
+        <v>265.8</v>
       </c>
       <c r="C96" s="2">
-        <v>90495152182</v>
+        <v>93510931583</v>
       </c>
       <c r="D96" s="3">
-        <v>74</v>
+        <v>744</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3267,13 +3267,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>120.49</v>
+        <v>124.16</v>
       </c>
       <c r="C97" s="2">
-        <v>19449463001</v>
+        <v>19772191787</v>
       </c>
       <c r="D97" s="3">
-        <v>164</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3281,13 +3281,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>86.34999999999999</v>
+        <v>85.52</v>
       </c>
       <c r="C98" s="2">
-        <v>70687135413</v>
+        <v>71181052659</v>
       </c>
       <c r="D98" s="3">
-        <v>229</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3295,13 +3295,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>193.04</v>
+        <v>190.72</v>
       </c>
       <c r="C99" s="2">
-        <v>23864440876</v>
+        <v>23028150105</v>
       </c>
       <c r="D99" s="3">
-        <v>102</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3309,13 +3309,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>78.42</v>
+        <v>81.05</v>
       </c>
       <c r="C100" s="2">
-        <v>11087709938</v>
+        <v>11235622074</v>
       </c>
       <c r="D100" s="3">
-        <v>252</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3323,13 +3323,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>59.9</v>
+        <v>60.13</v>
       </c>
       <c r="C101" s="2">
-        <v>271281351103</v>
+        <v>272485641003</v>
       </c>
       <c r="D101" s="3">
-        <v>330</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3337,13 +3337,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>217.09</v>
+        <v>218.34</v>
       </c>
       <c r="C102" s="2">
-        <v>77853891372</v>
+        <v>80759074979</v>
       </c>
       <c r="D102" s="3">
-        <v>91</v>
+        <v>906</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3351,13 +3351,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>1400.21</v>
+        <v>1351.7</v>
       </c>
       <c r="C103" s="2">
-        <v>40914564085</v>
+        <v>38321033549</v>
       </c>
       <c r="D103" s="3">
-        <v>14</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3365,13 +3365,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>272.37</v>
+        <v>274.17</v>
       </c>
       <c r="C104" s="2">
-        <v>39201164578</v>
+        <v>40498604634</v>
       </c>
       <c r="D104" s="3">
-        <v>72</v>
+        <v>722</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3379,13 +3379,13 @@
         <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>66.18000000000001</v>
+        <v>64.887</v>
       </c>
       <c r="C105" s="2">
-        <v>19263464303</v>
+        <v>18485408170</v>
       </c>
       <c r="D105" s="3">
-        <v>299</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3393,13 +3393,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="2">
-        <v>68.56999999999999</v>
+        <v>69.06999999999999</v>
       </c>
       <c r="C106" s="2">
-        <v>40212101057</v>
+        <v>40794248693</v>
       </c>
       <c r="D106" s="3">
-        <v>288</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3407,13 +3407,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>24.59</v>
+        <v>25.45</v>
       </c>
       <c r="C107" s="2">
-        <v>13919398809</v>
+        <v>14643874513</v>
       </c>
       <c r="D107" s="3">
-        <v>805</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3421,13 +3421,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="2">
-        <v>161.88</v>
+        <v>158.89</v>
       </c>
       <c r="C108" s="2">
-        <v>70865931928</v>
+        <v>74032320520</v>
       </c>
       <c r="D108" s="3">
-        <v>122</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3435,13 +3435,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="2">
-        <v>17.62</v>
+        <v>17.96</v>
       </c>
       <c r="C109" s="2">
-        <v>7297316326</v>
+        <v>6989497166</v>
       </c>
       <c r="D109" s="3">
-        <v>1123</v>
+        <v>11025</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3449,13 +3449,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="2">
-        <v>396.82</v>
+        <v>399.105</v>
       </c>
       <c r="C110" s="2">
-        <v>20765251851</v>
+        <v>21405604597</v>
       </c>
       <c r="D110" s="3">
-        <v>49</v>
+        <v>496</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3463,13 +3463,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="2">
-        <v>57.83</v>
+        <v>56.479</v>
       </c>
       <c r="C111" s="2">
-        <v>77529079984</v>
+        <v>74170250813</v>
       </c>
       <c r="D111" s="3">
-        <v>342</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3477,13 +3477,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="2">
-        <v>388.81</v>
+        <v>389.6</v>
       </c>
       <c r="C112" s="2">
-        <v>173020939738</v>
+        <v>173145614919</v>
       </c>
       <c r="D112" s="3">
-        <v>50</v>
+        <v>508</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3491,13 +3491,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="2">
-        <v>9.449999999999999</v>
+        <v>8.901</v>
       </c>
       <c r="C113" s="2">
-        <v>7227904269</v>
+        <v>6864693553</v>
       </c>
       <c r="D113" s="3">
-        <v>2095</v>
+        <v>22246</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3505,13 +3505,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="2">
-        <v>51.54</v>
+        <v>49.97</v>
       </c>
       <c r="C114" s="2">
-        <v>15650305724</v>
+        <v>15809542441</v>
       </c>
       <c r="D114" s="3">
-        <v>384</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3519,13 +3519,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="2">
-        <v>125.21</v>
+        <v>125.85</v>
       </c>
       <c r="C115" s="2">
-        <v>29590880623</v>
+        <v>29273261133</v>
       </c>
       <c r="D115" s="3">
-        <v>158</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3533,13 +3533,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="2">
-        <v>223.74</v>
+        <v>222.94</v>
       </c>
       <c r="C116" s="2">
-        <v>200938936304</v>
+        <v>199481979141</v>
       </c>
       <c r="D116" s="3">
-        <v>88</v>
+        <v>888</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3547,13 +3547,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="2">
-        <v>54.23</v>
+        <v>55.36</v>
       </c>
       <c r="C117" s="2">
-        <v>227047005251</v>
+        <v>226027675197</v>
       </c>
       <c r="D117" s="3">
-        <v>365</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3561,13 +3561,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="2">
-        <v>105.54</v>
+        <v>102.2</v>
       </c>
       <c r="C118" s="2">
-        <v>80591413719</v>
+        <v>78641411073</v>
       </c>
       <c r="D118" s="3">
-        <v>187</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3575,13 +3575,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="2">
-        <v>367.63</v>
+        <v>360.86</v>
       </c>
       <c r="C119" s="2">
-        <v>37417083937</v>
+        <v>38766969897</v>
       </c>
       <c r="D119" s="3">
-        <v>53</v>
+        <v>548</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3592,10 +3592,10 @@
         <v>11</v>
       </c>
       <c r="C120" s="2">
-        <v>12672916510</v>
+        <v>12289628005</v>
       </c>
       <c r="D120" s="3">
-        <v>1800</v>
+        <v>18001</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3603,13 +3603,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="2">
-        <v>76.17</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="C121" s="2">
-        <v>39530679078</v>
+        <v>38013801928</v>
       </c>
       <c r="D121" s="3">
-        <v>259</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3617,13 +3617,13 @@
         <v>124</v>
       </c>
       <c r="B122" s="2">
-        <v>47.87</v>
+        <v>47.7</v>
       </c>
       <c r="C122" s="2">
-        <v>35737734370</v>
+        <v>34286411064</v>
       </c>
       <c r="D122" s="3">
-        <v>413</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3631,13 +3631,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="2">
-        <v>119.7</v>
+        <v>118.35</v>
       </c>
       <c r="C123" s="2">
-        <v>14951732517</v>
+        <v>14788705387</v>
       </c>
       <c r="D123" s="3">
-        <v>165</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3645,13 +3645,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="2">
-        <v>88.47</v>
+        <v>87.17</v>
       </c>
       <c r="C124" s="2">
-        <v>113531351669</v>
+        <v>115147399729</v>
       </c>
       <c r="D124" s="3">
-        <v>223</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3659,13 +3659,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="2">
-        <v>108.7</v>
+        <v>107.05</v>
       </c>
       <c r="C125" s="2">
-        <v>210835046853</v>
+        <v>215407905135</v>
       </c>
       <c r="D125" s="3">
-        <v>182</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3673,13 +3673,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="2">
-        <v>67.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C126" s="2">
-        <v>13199948725</v>
+        <v>12981929637</v>
       </c>
       <c r="D126" s="3">
-        <v>294</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3687,13 +3687,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="2">
-        <v>80.73999999999999</v>
+        <v>79.03</v>
       </c>
       <c r="C127" s="2">
-        <v>64784259845</v>
+        <v>64068316998</v>
       </c>
       <c r="D127" s="3">
-        <v>245</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3701,13 +3701,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="2">
-        <v>45.63</v>
+        <v>44.328</v>
       </c>
       <c r="C128" s="2">
-        <v>29124657722</v>
+        <v>29189753858</v>
       </c>
       <c r="D128" s="3">
-        <v>433</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3715,13 +3715,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="2">
-        <v>85.81999999999999</v>
+        <v>83.16</v>
       </c>
       <c r="C129" s="2">
-        <v>45721443406</v>
+        <v>45411784149</v>
       </c>
       <c r="D129" s="3">
-        <v>230</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3729,13 +3729,13 @@
         <v>132</v>
       </c>
       <c r="B130" s="2">
-        <v>399.3</v>
+        <v>389.41</v>
       </c>
       <c r="C130" s="2">
-        <v>125294929997</v>
+        <v>120538359962</v>
       </c>
       <c r="D130" s="3">
-        <v>49</v>
+        <v>508</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3743,13 +3743,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="2">
-        <v>118.97</v>
+        <v>118.55</v>
       </c>
       <c r="C131" s="2">
-        <v>36340861204</v>
+        <v>36671188160</v>
       </c>
       <c r="D131" s="3">
-        <v>166</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3757,13 +3757,13 @@
         <v>134</v>
       </c>
       <c r="B132" s="2">
-        <v>216.8</v>
+        <v>209.653</v>
       </c>
       <c r="C132" s="2">
-        <v>51206115278</v>
+        <v>51433862474</v>
       </c>
       <c r="D132" s="3">
-        <v>91</v>
+        <v>944</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3771,13 +3771,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="2">
-        <v>138.15</v>
+        <v>138.024</v>
       </c>
       <c r="C133" s="2">
-        <v>18192707856</v>
+        <v>18181836522</v>
       </c>
       <c r="D133" s="3">
-        <v>143</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3785,13 +3785,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="2">
-        <v>103.9</v>
+        <v>99.697</v>
       </c>
       <c r="C134" s="2">
-        <v>36930365153</v>
+        <v>34633145427</v>
       </c>
       <c r="D134" s="3">
-        <v>190</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3799,13 +3799,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="2">
-        <v>269.91</v>
+        <v>261.56</v>
       </c>
       <c r="C135" s="2">
-        <v>187605982963</v>
+        <v>186291189686</v>
       </c>
       <c r="D135" s="3">
-        <v>73</v>
+        <v>757</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3813,13 +3813,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="2">
-        <v>182.59</v>
+        <v>180.92</v>
       </c>
       <c r="C136" s="2">
-        <v>332107594446</v>
+        <v>339000285987</v>
       </c>
       <c r="D136" s="3">
-        <v>108</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3827,13 +3827,13 @@
         <v>139</v>
       </c>
       <c r="B137" s="2">
-        <v>38.141</v>
+        <v>35.8</v>
       </c>
       <c r="C137" s="2">
-        <v>17992008822</v>
+        <v>16967927079</v>
       </c>
       <c r="D137" s="3">
-        <v>519</v>
+        <v>5531</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3841,13 +3841,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="2">
-        <v>32.95</v>
+        <v>31.92</v>
       </c>
       <c r="C138" s="2">
-        <v>17527224717</v>
+        <v>16924429106</v>
       </c>
       <c r="D138" s="3">
-        <v>600</v>
+        <v>6203</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3855,13 +3855,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="2">
-        <v>47.36</v>
+        <v>45.73</v>
       </c>
       <c r="C139" s="2">
-        <v>24573957687</v>
+        <v>24590369966</v>
       </c>
       <c r="D139" s="3">
-        <v>418</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3869,13 +3869,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="2">
-        <v>152.62</v>
+        <v>150.8</v>
       </c>
       <c r="C140" s="2">
-        <v>43890283589</v>
+        <v>42145188393</v>
       </c>
       <c r="D140" s="3">
-        <v>129</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3883,13 +3883,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="2">
-        <v>115.85</v>
+        <v>114.48</v>
       </c>
       <c r="C141" s="2">
-        <v>27630884082</v>
+        <v>27024327278</v>
       </c>
       <c r="D141" s="3">
-        <v>170</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3897,13 +3897,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="2">
-        <v>152.03</v>
+        <v>153.7</v>
       </c>
       <c r="C142" s="2">
-        <v>21953265931</v>
+        <v>21953189793</v>
       </c>
       <c r="D142" s="3">
-        <v>130</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3911,13 +3911,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="2">
-        <v>69.7</v>
+        <v>68.59</v>
       </c>
       <c r="C143" s="2">
-        <v>52338896874</v>
+        <v>53282253098</v>
       </c>
       <c r="D143" s="3">
-        <v>284</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3925,13 +3925,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="2">
-        <v>428.96</v>
+        <v>436.74</v>
       </c>
       <c r="C144" s="2">
-        <v>17052054550</v>
+        <v>16871864630</v>
       </c>
       <c r="D144" s="3">
-        <v>46</v>
+        <v>453</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3939,13 +3939,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="2">
-        <v>46.21</v>
+        <v>46.06</v>
       </c>
       <c r="C145" s="2">
-        <v>17062425866</v>
+        <v>17141664596</v>
       </c>
       <c r="D145" s="3">
-        <v>428</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3953,13 +3953,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="2">
-        <v>143.8</v>
+        <v>135.33</v>
       </c>
       <c r="C146" s="2">
-        <v>17946443755</v>
+        <v>18181004649</v>
       </c>
       <c r="D146" s="3">
-        <v>137</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3967,13 +3967,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="2">
-        <v>149.04</v>
+        <v>146.81</v>
       </c>
       <c r="C147" s="2">
-        <v>27640618704</v>
+        <v>27745872244</v>
       </c>
       <c r="D147" s="3">
-        <v>132</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3981,13 +3981,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="2">
-        <v>108.53</v>
+        <v>104.9</v>
       </c>
       <c r="C148" s="2">
-        <v>80420600693</v>
+        <v>80759900638</v>
       </c>
       <c r="D148" s="3">
-        <v>182</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3995,13 +3995,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="2">
-        <v>130.37</v>
+        <v>128.47</v>
       </c>
       <c r="C149" s="2">
-        <v>13545460262</v>
+        <v>13765025643</v>
       </c>
       <c r="D149" s="3">
-        <v>151</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4009,13 +4009,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="2">
-        <v>26.74</v>
+        <v>26</v>
       </c>
       <c r="C150" s="2">
-        <v>18204878449</v>
+        <v>16894485981</v>
       </c>
       <c r="D150" s="3">
-        <v>740</v>
+        <v>7616</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4023,13 +4023,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="2">
-        <v>35.4</v>
+        <v>36.89</v>
       </c>
       <c r="C151" s="2">
-        <v>8922661469</v>
+        <v>9483029249</v>
       </c>
       <c r="D151" s="3">
-        <v>559</v>
+        <v>5367</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4037,13 +4037,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="2">
-        <v>364</v>
+        <v>339.66</v>
       </c>
       <c r="C152" s="2">
-        <v>34219443446</v>
+        <v>31698336091</v>
       </c>
       <c r="D152" s="3">
-        <v>54</v>
+        <v>582</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4051,13 +4051,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="2">
-        <v>145.08</v>
+        <v>140.863</v>
       </c>
       <c r="C153" s="2">
-        <v>40988770929</v>
+        <v>41635593470</v>
       </c>
       <c r="D153" s="3">
-        <v>136</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4065,13 +4065,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="2">
-        <v>63.45</v>
+        <v>60.29</v>
       </c>
       <c r="C154" s="2">
-        <v>43104726090</v>
+        <v>41901642298</v>
       </c>
       <c r="D154" s="3">
-        <v>312</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4079,13 +4079,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="2">
-        <v>232.7</v>
+        <v>227.63</v>
       </c>
       <c r="C155" s="2">
-        <v>65816064070</v>
+        <v>65187816137</v>
       </c>
       <c r="D155" s="3">
-        <v>85</v>
+        <v>869</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4093,13 +4093,13 @@
         <v>158</v>
       </c>
       <c r="B156" s="2">
-        <v>81.77</v>
+        <v>80.56999999999999</v>
       </c>
       <c r="C156" s="2">
-        <v>27448820289</v>
+        <v>27368376037</v>
       </c>
       <c r="D156" s="3">
-        <v>242</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4107,13 +4107,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="2">
-        <v>242.9</v>
+        <v>246.5</v>
       </c>
       <c r="C157" s="2">
-        <v>29531789742</v>
+        <v>30251018013</v>
       </c>
       <c r="D157" s="3">
-        <v>81</v>
+        <v>803</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4121,13 +4121,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="2">
-        <v>61.55</v>
+        <v>59.95</v>
       </c>
       <c r="C158" s="2">
-        <v>22352296849</v>
+        <v>22285065739</v>
       </c>
       <c r="D158" s="3">
-        <v>321</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4135,13 +4135,13 @@
         <v>161</v>
       </c>
       <c r="B159" s="2">
-        <v>308.37</v>
+        <v>306.29</v>
       </c>
       <c r="C159" s="2">
-        <v>109709820107</v>
+        <v>106302320382</v>
       </c>
       <c r="D159" s="3">
-        <v>64</v>
+        <v>646</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4149,13 +4149,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="2">
-        <v>132.9</v>
+        <v>133.89</v>
       </c>
       <c r="C160" s="2">
-        <v>17811696338</v>
+        <v>18190173931</v>
       </c>
       <c r="D160" s="3">
-        <v>148</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4163,13 +4163,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="2">
-        <v>98.20999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C161" s="2">
-        <v>59972917341</v>
+        <v>58063937022</v>
       </c>
       <c r="D161" s="3">
-        <v>201</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4177,13 +4177,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="2">
-        <v>82.64</v>
+        <v>82.18000000000001</v>
       </c>
       <c r="C162" s="2">
-        <v>48164821030</v>
+        <v>47232595059</v>
       </c>
       <c r="D162" s="3">
-        <v>239</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4191,13 +4191,13 @@
         <v>165</v>
       </c>
       <c r="B163" s="2">
-        <v>750.47</v>
+        <v>750.28</v>
       </c>
       <c r="C163" s="2">
-        <v>67342475009</v>
+        <v>67002489879</v>
       </c>
       <c r="D163" s="3">
-        <v>26</v>
+        <v>263</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4205,13 +4205,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="2">
-        <v>76.90000000000001</v>
+        <v>75.31</v>
       </c>
       <c r="C164" s="2">
-        <v>29127055324</v>
+        <v>28583302056</v>
       </c>
       <c r="D164" s="3">
-        <v>257</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4219,13 +4219,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="2">
-        <v>85.92</v>
+        <v>87.58</v>
       </c>
       <c r="C165" s="2">
-        <v>29199703065</v>
+        <v>29465369579</v>
       </c>
       <c r="D165" s="3">
-        <v>230</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4233,13 +4233,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="2">
-        <v>296.05</v>
+        <v>292.307</v>
       </c>
       <c r="C166" s="2">
-        <v>19062555840</v>
+        <v>18966522885</v>
       </c>
       <c r="D166" s="3">
-        <v>66</v>
+        <v>677</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4247,13 +4247,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="2">
-        <v>51.57</v>
+        <v>49.53</v>
       </c>
       <c r="C167" s="2">
-        <v>11151055852</v>
+        <v>11280123764</v>
       </c>
       <c r="D167" s="3">
-        <v>383</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4261,13 +4261,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="2">
-        <v>151.71</v>
+        <v>148.21</v>
       </c>
       <c r="C168" s="2">
-        <v>60543900272</v>
+        <v>59599051720</v>
       </c>
       <c r="D168" s="3">
-        <v>130</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4275,13 +4275,13 @@
         <v>171</v>
       </c>
       <c r="B169" s="2">
-        <v>111.02</v>
+        <v>106.64</v>
       </c>
       <c r="C169" s="2">
-        <v>22519686516</v>
+        <v>22439750613</v>
       </c>
       <c r="D169" s="3">
-        <v>178</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4289,13 +4289,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="2">
-        <v>63.02</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="C170" s="2">
-        <v>14992493856</v>
+        <v>14711775717</v>
       </c>
       <c r="D170" s="3">
-        <v>314</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4303,13 +4303,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="2">
-        <v>91.55</v>
+        <v>90.04000000000001</v>
       </c>
       <c r="C171" s="2">
-        <v>57337148961</v>
+        <v>55051561085</v>
       </c>
       <c r="D171" s="3">
-        <v>216</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4317,13 +4317,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="2">
-        <v>45.73</v>
+        <v>45.28</v>
       </c>
       <c r="C172" s="2">
-        <v>44166922369</v>
+        <v>45529282611</v>
       </c>
       <c r="D172" s="3">
-        <v>433</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4331,13 +4331,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="2">
-        <v>121.84</v>
+        <v>122.44</v>
       </c>
       <c r="C173" s="2">
-        <v>20197053684</v>
+        <v>20712856571</v>
       </c>
       <c r="D173" s="3">
-        <v>162</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4345,13 +4345,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="2">
-        <v>179.2</v>
+        <v>171.98</v>
       </c>
       <c r="C174" s="2">
-        <v>25353964659</v>
+        <v>23904763883</v>
       </c>
       <c r="D174" s="3">
-        <v>110</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4359,13 +4359,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="2">
-        <v>149.1</v>
+        <v>151.84</v>
       </c>
       <c r="C175" s="2">
-        <v>20143261310</v>
+        <v>20102402350</v>
       </c>
       <c r="D175" s="3">
-        <v>132</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4373,13 +4373,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="2">
-        <v>11.93</v>
+        <v>12.111</v>
       </c>
       <c r="C176" s="2">
-        <v>47239549069</v>
+        <v>46921830569</v>
       </c>
       <c r="D176" s="3">
-        <v>1659</v>
+        <v>16350</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4387,13 +4387,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="2">
-        <v>81</v>
+        <v>79.84</v>
       </c>
       <c r="C177" s="2">
-        <v>15002262083</v>
+        <v>14229862707</v>
       </c>
       <c r="D177" s="3">
-        <v>244</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4401,13 +4401,13 @@
         <v>180</v>
       </c>
       <c r="B178" s="2">
-        <v>54.03</v>
+        <v>55.03</v>
       </c>
       <c r="C178" s="2">
-        <v>30559745105</v>
+        <v>30727637935</v>
       </c>
       <c r="D178" s="3">
-        <v>366</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4415,13 +4415,13 @@
         <v>181</v>
       </c>
       <c r="B179" s="2">
-        <v>319.14</v>
+        <v>318.04</v>
       </c>
       <c r="C179" s="2">
-        <v>899335271330</v>
+        <v>897539189855</v>
       </c>
       <c r="D179" s="3">
-        <v>62</v>
+        <v>622</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4429,13 +4429,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="2">
-        <v>113.34</v>
+        <v>110.82</v>
       </c>
       <c r="C180" s="2">
-        <v>15798082857</v>
+        <v>15089512476</v>
       </c>
       <c r="D180" s="3">
-        <v>174</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4443,13 +4443,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="2">
-        <v>45</v>
+        <v>43.5</v>
       </c>
       <c r="C181" s="2">
-        <v>67183768821</v>
+        <v>64093811091</v>
       </c>
       <c r="D181" s="3">
-        <v>440</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4457,13 +4457,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="2">
-        <v>308.16</v>
+        <v>308.24</v>
       </c>
       <c r="C182" s="2">
-        <v>83324617829</v>
+        <v>82671823454</v>
       </c>
       <c r="D182" s="3">
-        <v>64</v>
+        <v>642</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4471,13 +4471,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="2">
-        <v>39</v>
+        <v>38.92</v>
       </c>
       <c r="C183" s="2">
-        <v>20402850342</v>
+        <v>20954472096</v>
       </c>
       <c r="D183" s="3">
-        <v>507</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4485,13 +4485,13 @@
         <v>186</v>
       </c>
       <c r="B184" s="2">
-        <v>183.8</v>
+        <v>179.78</v>
       </c>
       <c r="C184" s="2">
-        <v>11319405098</v>
+        <v>10891422690</v>
       </c>
       <c r="D184" s="3">
-        <v>107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4499,13 +4499,13 @@
         <v>187</v>
       </c>
       <c r="B185" s="2">
-        <v>152</v>
+        <v>151.15</v>
       </c>
       <c r="C185" s="2">
-        <v>93407385180</v>
+        <v>94330641471</v>
       </c>
       <c r="D185" s="3">
-        <v>130</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4513,13 +4513,13 @@
         <v>188</v>
       </c>
       <c r="B186" s="2">
-        <v>116.47</v>
+        <v>119.19</v>
       </c>
       <c r="C186" s="2">
-        <v>76778835937</v>
+        <v>77164257216</v>
       </c>
       <c r="D186" s="3">
-        <v>170</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4527,13 +4527,13 @@
         <v>189</v>
       </c>
       <c r="B187" s="2">
-        <v>43.06</v>
+        <v>42.89</v>
       </c>
       <c r="C187" s="2">
-        <v>30683976755</v>
+        <v>29850535898</v>
       </c>
       <c r="D187" s="3">
-        <v>459</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4541,13 +4541,13 @@
         <v>190</v>
       </c>
       <c r="B188" s="2">
-        <v>59.94</v>
+        <v>60.28</v>
       </c>
       <c r="C188" s="2">
-        <v>8063886891</v>
+        <v>7882994855</v>
       </c>
       <c r="D188" s="3">
-        <v>330</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4555,13 +4555,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="2">
-        <v>43.44</v>
+        <v>44.367</v>
       </c>
       <c r="C189" s="2">
-        <v>5603217094</v>
+        <v>5562695817</v>
       </c>
       <c r="D189" s="3">
-        <v>455</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4569,13 +4569,13 @@
         <v>192</v>
       </c>
       <c r="B190" s="2">
-        <v>284.23</v>
+        <v>283.926</v>
       </c>
       <c r="C190" s="2">
-        <v>24317823528</v>
+        <v>23412433620</v>
       </c>
       <c r="D190" s="3">
-        <v>69</v>
+        <v>697</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4583,13 +4583,13 @@
         <v>193</v>
       </c>
       <c r="B191" s="2">
-        <v>119.9</v>
+        <v>122.45</v>
       </c>
       <c r="C191" s="2">
-        <v>15367526024</v>
+        <v>15169499956</v>
       </c>
       <c r="D191" s="3">
-        <v>165</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4597,13 +4597,13 @@
         <v>194</v>
       </c>
       <c r="B192" s="2">
-        <v>37.98</v>
+        <v>38.29</v>
       </c>
       <c r="C192" s="2">
-        <v>22631900117</v>
+        <v>22937591876</v>
       </c>
       <c r="D192" s="3">
-        <v>521</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4611,13 +4611,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="2">
-        <v>38.694</v>
+        <v>39.81</v>
       </c>
       <c r="C193" s="2">
-        <v>22138063394</v>
+        <v>22896121802</v>
       </c>
       <c r="D193" s="3">
-        <v>511</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4625,13 +4625,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="2">
-        <v>186.67</v>
+        <v>192.1</v>
       </c>
       <c r="C194" s="2">
-        <v>33395494424</v>
+        <v>33557124858</v>
       </c>
       <c r="D194" s="3">
-        <v>106</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4639,13 +4639,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="2">
-        <v>117.11</v>
+        <v>115.3</v>
       </c>
       <c r="C195" s="2">
-        <v>8910816656</v>
+        <v>8857649323</v>
       </c>
       <c r="D195" s="3">
-        <v>169</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4653,13 +4653,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="2">
-        <v>8.550000000000001</v>
+        <v>7.98</v>
       </c>
       <c r="C196" s="2">
-        <v>3781753950</v>
+        <v>3697185224</v>
       </c>
       <c r="D196" s="3">
-        <v>2316</v>
+        <v>24814</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4667,13 +4667,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="2">
-        <v>216.8</v>
+        <v>200.622</v>
       </c>
       <c r="C197" s="2">
-        <v>34005230361</v>
+        <v>33358068884</v>
       </c>
       <c r="D197" s="3">
-        <v>91</v>
+        <v>987</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4681,13 +4681,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="2">
-        <v>73.25</v>
+        <v>71.027</v>
       </c>
       <c r="C198" s="2">
-        <v>24060663095</v>
+        <v>24545795962</v>
       </c>
       <c r="D198" s="3">
-        <v>270</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4695,13 +4695,13 @@
         <v>201</v>
       </c>
       <c r="B199" s="2">
-        <v>192.65</v>
+        <v>192.48</v>
       </c>
       <c r="C199" s="2">
-        <v>54853478844</v>
+        <v>55946883307</v>
       </c>
       <c r="D199" s="3">
-        <v>102</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4709,13 +4709,13 @@
         <v>202</v>
       </c>
       <c r="B200" s="2">
-        <v>13.16</v>
+        <v>13.12</v>
       </c>
       <c r="C200" s="2">
-        <v>120052713655</v>
+        <v>115704102130</v>
       </c>
       <c r="D200" s="3">
-        <v>1504</v>
+        <v>15092</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4723,13 +4723,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="2">
-        <v>69.45999999999999</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="C201" s="2">
-        <v>88010046248</v>
+        <v>90499298222</v>
       </c>
       <c r="D201" s="3">
-        <v>285</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4737,13 +4737,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="2">
-        <v>65.34</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="C202" s="2">
-        <v>39774494649</v>
+        <v>39753073833</v>
       </c>
       <c r="D202" s="3">
-        <v>303</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4751,13 +4751,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="2">
-        <v>106.81</v>
+        <v>106.69</v>
       </c>
       <c r="C203" s="2">
-        <v>10744632176</v>
+        <v>11258781052</v>
       </c>
       <c r="D203" s="3">
-        <v>185</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4765,13 +4765,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="2">
-        <v>45.72</v>
+        <v>44.122</v>
       </c>
       <c r="C204" s="2">
-        <v>39838430464</v>
+        <v>37722379431</v>
       </c>
       <c r="D204" s="3">
-        <v>433</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4779,13 +4779,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="2">
-        <v>58</v>
+        <v>54.96</v>
       </c>
       <c r="C205" s="2">
-        <v>84886568897</v>
+        <v>80009031886</v>
       </c>
       <c r="D205" s="3">
-        <v>341</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4793,13 +4793,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="2">
-        <v>2333.42</v>
+        <v>2380.2</v>
       </c>
       <c r="C206" s="2">
-        <v>1603849800272</v>
+        <v>1547540930311</v>
       </c>
       <c r="D206" s="3">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4807,13 +4807,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="2">
-        <v>2304.84</v>
+        <v>2346.85</v>
       </c>
       <c r="C207" s="2">
-        <v>1613243833179</v>
+        <v>1600973767795</v>
       </c>
       <c r="D207" s="3">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4821,13 +4821,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="2">
-        <v>135.84</v>
+        <v>134.81</v>
       </c>
       <c r="C208" s="2">
-        <v>19556304965</v>
+        <v>19425750568</v>
       </c>
       <c r="D208" s="3">
-        <v>145</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4835,13 +4835,13 @@
         <v>211</v>
       </c>
       <c r="B209" s="2">
-        <v>201.36</v>
+        <v>199</v>
       </c>
       <c r="C209" s="2">
-        <v>57647340092</v>
+        <v>59925344589</v>
       </c>
       <c r="D209" s="3">
-        <v>98</v>
+        <v>995</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4849,13 +4849,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="2">
-        <v>36.1</v>
+        <v>34.1</v>
       </c>
       <c r="C210" s="2">
-        <v>13607626792</v>
+        <v>12761889996</v>
       </c>
       <c r="D210" s="3">
-        <v>548</v>
+        <v>5807</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4863,13 +4863,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="2">
-        <v>143.11</v>
+        <v>141.382</v>
       </c>
       <c r="C211" s="2">
-        <v>28064008886</v>
+        <v>27805462807</v>
       </c>
       <c r="D211" s="3">
-        <v>138</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4877,13 +4877,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="2">
-        <v>375.47</v>
+        <v>375.29</v>
       </c>
       <c r="C212" s="2">
-        <v>125531557217</v>
+        <v>123344055863</v>
       </c>
       <c r="D212" s="3">
-        <v>52</v>
+        <v>527</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4891,13 +4891,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="2">
-        <v>464</v>
+        <v>473.01</v>
       </c>
       <c r="C213" s="2">
-        <v>24166521760</v>
+        <v>25451622720</v>
       </c>
       <c r="D213" s="3">
-        <v>42</v>
+        <v>418</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4905,13 +4905,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="2">
-        <v>23.05</v>
+        <v>23.47</v>
       </c>
       <c r="C214" s="2">
-        <v>20896466219</v>
+        <v>20460395065</v>
       </c>
       <c r="D214" s="3">
-        <v>859</v>
+        <v>8437</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4919,13 +4919,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="2">
-        <v>101.02</v>
+        <v>100.3</v>
       </c>
       <c r="C215" s="2">
-        <v>13725218883</v>
+        <v>13581373220</v>
       </c>
       <c r="D215" s="3">
-        <v>196</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4933,13 +4933,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="2">
-        <v>15.79</v>
+        <v>16.338</v>
       </c>
       <c r="C216" s="2">
-        <v>16215783143</v>
+        <v>16351110576</v>
       </c>
       <c r="D216" s="3">
-        <v>1254</v>
+        <v>12120</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4947,13 +4947,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="2">
-        <v>19.42</v>
+        <v>18.89</v>
       </c>
       <c r="C217" s="2">
-        <v>6794000125</v>
+        <v>6780063429</v>
       </c>
       <c r="D217" s="3">
-        <v>1019</v>
+        <v>10482</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4961,13 +4961,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="2">
-        <v>210.31</v>
+        <v>216.82</v>
       </c>
       <c r="C218" s="2">
-        <v>69999530623</v>
+        <v>69486784889</v>
       </c>
       <c r="D218" s="3">
-        <v>94</v>
+        <v>913</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4975,13 +4975,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="2">
-        <v>335.55</v>
+        <v>333.831</v>
       </c>
       <c r="C219" s="2">
-        <v>358784457326</v>
+        <v>367210336234</v>
       </c>
       <c r="D219" s="3">
-        <v>59</v>
+        <v>593</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4989,13 +4989,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="2">
-        <v>84.29000000000001</v>
+        <v>83.19</v>
       </c>
       <c r="C220" s="2">
-        <v>25979779963</v>
+        <v>25392034509</v>
       </c>
       <c r="D220" s="3">
-        <v>234</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5003,13 +5003,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="2">
-        <v>34.72</v>
+        <v>34.74</v>
       </c>
       <c r="C221" s="2">
-        <v>5716789784</v>
+        <v>5701518083</v>
       </c>
       <c r="D221" s="3">
-        <v>570</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5017,13 +5017,13 @@
         <v>224</v>
       </c>
       <c r="B222" s="2">
-        <v>64.18000000000001</v>
+        <v>66.38</v>
       </c>
       <c r="C222" s="2">
-        <v>23879188687</v>
+        <v>23986575467</v>
       </c>
       <c r="D222" s="3">
-        <v>308</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5031,13 +5031,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="2">
-        <v>224.2</v>
+        <v>221.5</v>
       </c>
       <c r="C223" s="2">
-        <v>8951275996</v>
+        <v>8707037512</v>
       </c>
       <c r="D223" s="3">
-        <v>88</v>
+        <v>893</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5045,13 +5045,13 @@
         <v>226</v>
       </c>
       <c r="B224" s="2">
-        <v>127.73</v>
+        <v>126.659</v>
       </c>
       <c r="C224" s="2">
-        <v>34459921375</v>
+        <v>33808593459</v>
       </c>
       <c r="D224" s="3">
-        <v>155</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5059,13 +5059,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="2">
-        <v>65.27</v>
+        <v>65.33</v>
       </c>
       <c r="C225" s="2">
-        <v>17258454713</v>
+        <v>16255864635</v>
       </c>
       <c r="D225" s="3">
-        <v>303</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5073,13 +5073,13 @@
         <v>228</v>
       </c>
       <c r="B226" s="2">
-        <v>236.28</v>
+        <v>230.6</v>
       </c>
       <c r="C226" s="2">
-        <v>159716947278</v>
+        <v>158299174192</v>
       </c>
       <c r="D226" s="3">
-        <v>83</v>
+        <v>858</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5087,13 +5087,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="2">
-        <v>16.29</v>
+        <v>16.47</v>
       </c>
       <c r="C227" s="2">
-        <v>21337644151</v>
+        <v>21566815840</v>
       </c>
       <c r="D227" s="3">
-        <v>1215</v>
+        <v>12023</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5101,13 +5101,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="2">
-        <v>35.05</v>
+        <v>32.84</v>
       </c>
       <c r="C228" s="2">
-        <v>43140508221</v>
+        <v>42411080973</v>
       </c>
       <c r="D228" s="3">
-        <v>564</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5115,13 +5115,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="2">
-        <v>24.77</v>
+        <v>25.5</v>
       </c>
       <c r="C229" s="2">
-        <v>4329600291</v>
+        <v>4511843308</v>
       </c>
       <c r="D229" s="3">
-        <v>799</v>
+        <v>7765</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5129,13 +5129,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="2">
-        <v>48.86</v>
+        <v>49.11</v>
       </c>
       <c r="C230" s="2">
-        <v>26385683439</v>
+        <v>26464850492</v>
       </c>
       <c r="D230" s="3">
-        <v>405</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5143,13 +5143,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="2">
-        <v>84.29000000000001</v>
+        <v>82.25</v>
       </c>
       <c r="C231" s="2">
-        <v>11486200017</v>
+        <v>11861247517</v>
       </c>
       <c r="D231" s="3">
-        <v>234</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5157,13 +5157,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="2">
-        <v>17.55</v>
+        <v>16.959</v>
       </c>
       <c r="C232" s="2">
-        <v>12215787675</v>
+        <v>12176877289</v>
       </c>
       <c r="D232" s="3">
-        <v>1128</v>
+        <v>11676</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5171,13 +5171,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="2">
-        <v>171.28</v>
+        <v>173.45</v>
       </c>
       <c r="C233" s="2">
-        <v>35575432718</v>
+        <v>37239666615</v>
       </c>
       <c r="D233" s="3">
-        <v>115</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5185,13 +5185,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="2">
-        <v>475.33</v>
+        <v>476.97</v>
       </c>
       <c r="C234" s="2">
-        <v>61624657598</v>
+        <v>61422340953</v>
       </c>
       <c r="D234" s="3">
-        <v>41</v>
+        <v>415</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5199,13 +5199,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="2">
-        <v>33.6</v>
+        <v>32.986</v>
       </c>
       <c r="C235" s="2">
-        <v>14722509922</v>
+        <v>14490777411</v>
       </c>
       <c r="D235" s="3">
-        <v>589</v>
+        <v>6003</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5213,13 +5213,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="2">
-        <v>144.4</v>
+        <v>145.16</v>
       </c>
       <c r="C236" s="2">
-        <v>129273482257</v>
+        <v>131818123987</v>
       </c>
       <c r="D236" s="3">
-        <v>137</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5230,10 +5230,10 @@
         <v>114.7</v>
       </c>
       <c r="C237" s="2">
-        <v>66256212341</v>
+        <v>64463461988</v>
       </c>
       <c r="D237" s="3">
-        <v>172</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5241,13 +5241,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="2">
-        <v>551.29</v>
+        <v>540.48</v>
       </c>
       <c r="C238" s="2">
-        <v>46582776756</v>
+        <v>46035756179</v>
       </c>
       <c r="D238" s="3">
-        <v>35</v>
+        <v>366</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5255,13 +5255,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="2">
-        <v>226.84</v>
+        <v>229.2</v>
       </c>
       <c r="C239" s="2">
-        <v>17406624029</v>
+        <v>17115690189</v>
       </c>
       <c r="D239" s="3">
-        <v>87</v>
+        <v>863</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5269,13 +5269,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="2">
-        <v>144.86</v>
+        <v>143.56</v>
       </c>
       <c r="C240" s="2">
-        <v>34512549738</v>
+        <v>36003713450</v>
       </c>
       <c r="D240" s="3">
-        <v>136</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5283,13 +5283,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="2">
-        <v>388.37</v>
+        <v>386.2</v>
       </c>
       <c r="C241" s="2">
-        <v>58277442086</v>
+        <v>55767195370</v>
       </c>
       <c r="D241" s="3">
-        <v>50</v>
+        <v>512</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5297,13 +5297,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="2">
-        <v>83.31999999999999</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="C242" s="2">
-        <v>18116766446</v>
+        <v>19144676724</v>
       </c>
       <c r="D242" s="3">
-        <v>237</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5311,13 +5311,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="2">
-        <v>106.8</v>
+        <v>105.43</v>
       </c>
       <c r="C243" s="2">
-        <v>45784589882</v>
+        <v>45414695217</v>
       </c>
       <c r="D243" s="3">
-        <v>185</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5325,13 +5325,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="2">
-        <v>57.4</v>
+        <v>56.43</v>
       </c>
       <c r="C244" s="2">
-        <v>228790515314</v>
+        <v>226775461915</v>
       </c>
       <c r="D244" s="3">
-        <v>344</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5339,13 +5339,13 @@
         <v>247</v>
       </c>
       <c r="B245" s="2">
-        <v>398.62</v>
+        <v>422.23</v>
       </c>
       <c r="C245" s="2">
-        <v>109414388726</v>
+        <v>112508631727</v>
       </c>
       <c r="D245" s="3">
-        <v>49</v>
+        <v>468</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5353,13 +5353,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="2">
-        <v>64.81</v>
+        <v>64.58</v>
       </c>
       <c r="C246" s="2">
-        <v>25309457811</v>
+        <v>25479955812</v>
       </c>
       <c r="D246" s="3">
-        <v>305</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5367,13 +5367,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="2">
-        <v>32.69</v>
+        <v>33.56</v>
       </c>
       <c r="C247" s="2">
-        <v>12813547924</v>
+        <v>13109212262</v>
       </c>
       <c r="D247" s="3">
-        <v>605</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5381,13 +5381,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="2">
-        <v>195.66</v>
+        <v>194.2</v>
       </c>
       <c r="C248" s="2">
-        <v>10498864584</v>
+        <v>10669161675</v>
       </c>
       <c r="D248" s="3">
-        <v>101</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5395,13 +5395,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="2">
-        <v>238.97</v>
+        <v>233.12</v>
       </c>
       <c r="C249" s="2">
-        <v>44568137319</v>
+        <v>45545944303</v>
       </c>
       <c r="D249" s="3">
-        <v>82</v>
+        <v>849</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5409,13 +5409,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="2">
-        <v>49.84</v>
+        <v>47.8</v>
       </c>
       <c r="C250" s="2">
-        <v>20274570069</v>
+        <v>20271981646</v>
       </c>
       <c r="D250" s="3">
-        <v>397</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5423,13 +5423,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="2">
-        <v>43.61</v>
+        <v>42.32</v>
       </c>
       <c r="C251" s="2">
-        <v>12565077965</v>
+        <v>12181457507</v>
       </c>
       <c r="D251" s="3">
-        <v>454</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5437,13 +5437,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="2">
-        <v>878.11</v>
+        <v>836.41</v>
       </c>
       <c r="C252" s="2">
-        <v>99138679444</v>
+        <v>101875354166</v>
       </c>
       <c r="D252" s="3">
-        <v>22</v>
+        <v>236</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5451,13 +5451,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="2">
-        <v>235.6</v>
+        <v>236.38</v>
       </c>
       <c r="C253" s="2">
-        <v>19805854871</v>
+        <v>20346545693</v>
       </c>
       <c r="D253" s="3">
-        <v>84</v>
+        <v>837</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5465,13 +5465,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="2">
-        <v>238</v>
+        <v>246.19</v>
       </c>
       <c r="C254" s="2">
-        <v>75313698874</v>
+        <v>76234262227</v>
       </c>
       <c r="D254" s="3">
-        <v>83</v>
+        <v>804</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5479,13 +5479,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="2">
-        <v>27.92</v>
+        <v>27.58</v>
       </c>
       <c r="C255" s="2">
-        <v>13085223663</v>
+        <v>13202558069</v>
       </c>
       <c r="D255" s="3">
-        <v>709</v>
+        <v>7179</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5493,13 +5493,13 @@
         <v>258</v>
       </c>
       <c r="B256" s="2">
-        <v>146.84</v>
+        <v>145.77</v>
       </c>
       <c r="C256" s="2">
-        <v>18851458650</v>
+        <v>18624343970</v>
       </c>
       <c r="D256" s="3">
-        <v>134</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5507,13 +5507,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="2">
-        <v>184.16</v>
+        <v>177.58</v>
       </c>
       <c r="C257" s="2">
-        <v>19407405912</v>
+        <v>18989917888</v>
       </c>
       <c r="D257" s="3">
-        <v>107</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5521,13 +5521,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="2">
-        <v>65.81999999999999</v>
+        <v>66.41</v>
       </c>
       <c r="C258" s="2">
-        <v>46561170616</v>
+        <v>47550591557</v>
       </c>
       <c r="D258" s="3">
-        <v>300</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5535,13 +5535,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="2">
-        <v>156.76</v>
+        <v>164.3</v>
       </c>
       <c r="C259" s="2">
-        <v>11975214766</v>
+        <v>11872435744</v>
       </c>
       <c r="D259" s="3">
-        <v>126</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5549,13 +5549,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="2">
-        <v>171.88</v>
+        <v>174.95</v>
       </c>
       <c r="C260" s="2">
-        <v>444995265926</v>
+        <v>451387364858</v>
       </c>
       <c r="D260" s="3">
-        <v>115</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5563,13 +5563,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="2">
-        <v>26.93</v>
+        <v>27.29</v>
       </c>
       <c r="C261" s="2">
-        <v>8797723238</v>
+        <v>8999899771</v>
       </c>
       <c r="D261" s="3">
-        <v>735</v>
+        <v>7256</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5577,13 +5577,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="2">
-        <v>162.42</v>
+        <v>169.57</v>
       </c>
       <c r="C262" s="2">
-        <v>501665650822</v>
+        <v>501218555922</v>
       </c>
       <c r="D262" s="3">
-        <v>121</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5591,13 +5591,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="2">
-        <v>67.97</v>
+        <v>69.33</v>
       </c>
       <c r="C263" s="2">
-        <v>23621167733</v>
+        <v>24137126138</v>
       </c>
       <c r="D263" s="3">
-        <v>291</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5605,13 +5605,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="2">
-        <v>22.79</v>
+        <v>23.42</v>
       </c>
       <c r="C264" s="2">
-        <v>22102899398</v>
+        <v>22744739109</v>
       </c>
       <c r="D264" s="3">
-        <v>868</v>
+        <v>8455</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5619,13 +5619,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="2">
-        <v>143.34</v>
+        <v>141.84</v>
       </c>
       <c r="C265" s="2">
-        <v>26199449955</v>
+        <v>26077916084</v>
       </c>
       <c r="D265" s="3">
-        <v>138</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5633,13 +5633,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="2">
-        <v>45.334</v>
+        <v>46</v>
       </c>
       <c r="C266" s="2">
-        <v>52959849934</v>
+        <v>54889957413</v>
       </c>
       <c r="D266" s="3">
-        <v>436</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5647,13 +5647,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="2">
-        <v>21.11</v>
+        <v>21.7</v>
       </c>
       <c r="C267" s="2">
-        <v>9547397972</v>
+        <v>9369090476</v>
       </c>
       <c r="D267" s="3">
-        <v>938</v>
+        <v>9125</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5661,13 +5661,13 @@
         <v>270</v>
       </c>
       <c r="B268" s="2">
-        <v>302.3</v>
+        <v>303.37</v>
       </c>
       <c r="C268" s="2">
-        <v>46299241410</v>
+        <v>46326845803</v>
       </c>
       <c r="D268" s="3">
-        <v>65</v>
+        <v>652</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5675,13 +5675,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="2">
-        <v>135.29</v>
+        <v>134.74</v>
       </c>
       <c r="C269" s="2">
-        <v>47030920044</v>
+        <v>46355306380</v>
       </c>
       <c r="D269" s="3">
-        <v>146</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5689,13 +5689,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="2">
-        <v>18.81</v>
+        <v>18.4</v>
       </c>
       <c r="C270" s="2">
-        <v>41411246788</v>
+        <v>42547668600</v>
       </c>
       <c r="D270" s="3">
-        <v>1052</v>
+        <v>10761</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5703,13 +5703,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="2">
-        <v>126.26</v>
+        <v>124.94</v>
       </c>
       <c r="C271" s="2">
-        <v>20868172759</v>
+        <v>20233689348</v>
       </c>
       <c r="D271" s="3">
-        <v>156</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5717,13 +5717,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="2">
-        <v>55.34</v>
+        <v>57.26</v>
       </c>
       <c r="C272" s="2">
-        <v>241707687337</v>
+        <v>244408920219</v>
       </c>
       <c r="D272" s="3">
-        <v>357</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5731,13 +5731,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="2">
-        <v>38.5</v>
+        <v>38.71</v>
       </c>
       <c r="C273" s="2">
-        <v>29455944070</v>
+        <v>28402240201</v>
       </c>
       <c r="D273" s="3">
-        <v>514</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5745,13 +5745,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="2">
-        <v>60.37</v>
+        <v>58.45</v>
       </c>
       <c r="C274" s="2">
-        <v>9421638352</v>
+        <v>9105997891</v>
       </c>
       <c r="D274" s="3">
-        <v>328</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5759,13 +5759,13 @@
         <v>277</v>
       </c>
       <c r="B275" s="2">
-        <v>317.89</v>
+        <v>314.88</v>
       </c>
       <c r="C275" s="2">
-        <v>28433794128</v>
+        <v>29280459157</v>
       </c>
       <c r="D275" s="3">
-        <v>62</v>
+        <v>628</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5773,13 +5773,13 @@
         <v>278</v>
       </c>
       <c r="B276" s="2">
-        <v>59.13</v>
+        <v>58.68</v>
       </c>
       <c r="C276" s="2">
-        <v>15843335562</v>
+        <v>15558576349</v>
       </c>
       <c r="D276" s="3">
-        <v>334</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5787,13 +5787,13 @@
         <v>279</v>
       </c>
       <c r="B277" s="2">
-        <v>70.56999999999999</v>
+        <v>67.77</v>
       </c>
       <c r="C277" s="2">
-        <v>19054888245</v>
+        <v>18958614103</v>
       </c>
       <c r="D277" s="3">
-        <v>280</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5801,13 +5801,13 @@
         <v>280</v>
       </c>
       <c r="B278" s="2">
-        <v>108.93</v>
+        <v>106.87</v>
       </c>
       <c r="C278" s="2">
-        <v>15387262480</v>
+        <v>14784134277</v>
       </c>
       <c r="D278" s="3">
-        <v>181</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5815,13 +5815,13 @@
         <v>281</v>
       </c>
       <c r="B279" s="2">
-        <v>57.19</v>
+        <v>56.58</v>
       </c>
       <c r="C279" s="2">
-        <v>7632251804</v>
+        <v>7810640218</v>
       </c>
       <c r="D279" s="3">
-        <v>346</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5829,13 +5829,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="2">
-        <v>104.3</v>
+        <v>99.36</v>
       </c>
       <c r="C280" s="2">
-        <v>32398495211</v>
+        <v>30285134503</v>
       </c>
       <c r="D280" s="3">
-        <v>189</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5843,13 +5843,13 @@
         <v>283</v>
       </c>
       <c r="B281" s="2">
-        <v>280</v>
+        <v>289.649</v>
       </c>
       <c r="C281" s="2">
-        <v>27414118488</v>
+        <v>27918145761</v>
       </c>
       <c r="D281" s="3">
-        <v>70</v>
+        <v>683</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5857,13 +5857,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="2">
-        <v>218.23</v>
+        <v>225.73</v>
       </c>
       <c r="C282" s="2">
-        <v>44650711275</v>
+        <v>44430739732</v>
       </c>
       <c r="D282" s="3">
-        <v>90</v>
+        <v>877</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5871,13 +5871,13 @@
         <v>285</v>
       </c>
       <c r="B283" s="2">
-        <v>307.36</v>
+        <v>305.66</v>
       </c>
       <c r="C283" s="2">
-        <v>156238555343</v>
+        <v>155893499918</v>
       </c>
       <c r="D283" s="3">
-        <v>64</v>
+        <v>647</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5885,13 +5885,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="2">
-        <v>50.7</v>
+        <v>50.12</v>
       </c>
       <c r="C284" s="2">
-        <v>15073736029</v>
+        <v>15412446329</v>
       </c>
       <c r="D284" s="3">
-        <v>390</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5899,13 +5899,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="2">
-        <v>195.82</v>
+        <v>201.11</v>
       </c>
       <c r="C285" s="2">
-        <v>193416917604</v>
+        <v>188934758935</v>
       </c>
       <c r="D285" s="3">
-        <v>101</v>
+        <v>984</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5913,13 +5913,13 @@
         <v>288</v>
       </c>
       <c r="B286" s="2">
-        <v>392.57</v>
+        <v>394.07</v>
       </c>
       <c r="C286" s="2">
-        <v>109806917236</v>
+        <v>110216526441</v>
       </c>
       <c r="D286" s="3">
-        <v>50</v>
+        <v>502</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5927,13 +5927,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="2">
-        <v>70.02</v>
+        <v>71.66</v>
       </c>
       <c r="C287" s="2">
-        <v>13389497967</v>
+        <v>13396870492</v>
       </c>
       <c r="D287" s="3">
-        <v>282</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5941,13 +5941,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="2">
-        <v>59.41</v>
+        <v>57.24</v>
       </c>
       <c r="C288" s="2">
-        <v>14319651545</v>
+        <v>14900371967</v>
       </c>
       <c r="D288" s="3">
-        <v>333</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5955,13 +5955,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="2">
-        <v>209.74</v>
+        <v>202.95</v>
       </c>
       <c r="C289" s="2">
-        <v>152184410851</v>
+        <v>149152851508</v>
       </c>
       <c r="D289" s="3">
-        <v>94</v>
+        <v>975</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5969,13 +5969,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="2">
-        <v>602.1799999999999</v>
+        <v>601.502</v>
       </c>
       <c r="C290" s="2">
-        <v>85102053385</v>
+        <v>86194902039</v>
       </c>
       <c r="D290" s="3">
-        <v>32</v>
+        <v>329</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5983,13 +5983,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="2">
-        <v>60.86</v>
+        <v>62.76</v>
       </c>
       <c r="C291" s="2">
-        <v>35561853257</v>
+        <v>36234189490</v>
       </c>
       <c r="D291" s="3">
-        <v>325</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5997,13 +5997,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="2">
-        <v>58.41</v>
+        <v>56.96</v>
       </c>
       <c r="C292" s="2">
-        <v>43631779972</v>
+        <v>43670808463</v>
       </c>
       <c r="D292" s="3">
-        <v>339</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6011,13 +6011,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="2">
-        <v>81.73999999999999</v>
+        <v>81.64100000000001</v>
       </c>
       <c r="C293" s="2">
-        <v>11723270352</v>
+        <v>11748139781</v>
       </c>
       <c r="D293" s="3">
-        <v>242</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6025,13 +6025,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="2">
-        <v>117.06</v>
+        <v>111.14</v>
       </c>
       <c r="C294" s="2">
-        <v>38809998496</v>
+        <v>38172201593</v>
       </c>
       <c r="D294" s="3">
-        <v>169</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6039,13 +6039,13 @@
         <v>297</v>
       </c>
       <c r="B295" s="2">
-        <v>84.66</v>
+        <v>84.28</v>
       </c>
       <c r="C295" s="2">
-        <v>18691562016</v>
+        <v>17807776707</v>
       </c>
       <c r="D295" s="3">
-        <v>233</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6053,13 +6053,13 @@
         <v>298</v>
       </c>
       <c r="B296" s="2">
-        <v>367.86</v>
+        <v>363.99</v>
       </c>
       <c r="C296" s="2">
-        <v>367931230570</v>
+        <v>360175053009</v>
       </c>
       <c r="D296" s="3">
-        <v>53</v>
+        <v>544</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6067,13 +6067,13 @@
         <v>299</v>
       </c>
       <c r="B297" s="2">
-        <v>159.86</v>
+        <v>158.41</v>
       </c>
       <c r="C297" s="2">
-        <v>18953945081</v>
+        <v>18312897575</v>
       </c>
       <c r="D297" s="3">
-        <v>123</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6081,13 +6081,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="2">
-        <v>146.51</v>
+        <v>140.73</v>
       </c>
       <c r="C298" s="2">
-        <v>46860047484</v>
+        <v>45530639595</v>
       </c>
       <c r="D298" s="3">
-        <v>135</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6095,13 +6095,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="2">
-        <v>67.73</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="C299" s="2">
-        <v>16572904291</v>
+        <v>16355901047</v>
       </c>
       <c r="D299" s="3">
-        <v>292</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6109,13 +6109,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="2">
-        <v>239.16</v>
+        <v>234.2</v>
       </c>
       <c r="C300" s="2">
-        <v>174928571726</v>
+        <v>175700722812</v>
       </c>
       <c r="D300" s="3">
-        <v>82</v>
+        <v>845</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6123,13 +6123,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="2">
-        <v>152.67</v>
+        <v>145</v>
       </c>
       <c r="C301" s="2">
-        <v>39247387711</v>
+        <v>40265507648</v>
       </c>
       <c r="D301" s="3">
-        <v>129</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6137,13 +6137,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="2">
-        <v>205.75</v>
+        <v>196.57</v>
       </c>
       <c r="C302" s="2">
-        <v>31519571484</v>
+        <v>31900164215</v>
       </c>
       <c r="D302" s="3">
-        <v>96</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6151,13 +6151,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="2">
-        <v>341.34</v>
+        <v>334.06</v>
       </c>
       <c r="C303" s="2">
-        <v>63232996821</v>
+        <v>61900823965</v>
       </c>
       <c r="D303" s="3">
-        <v>58</v>
+        <v>592</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6165,13 +6165,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="2">
-        <v>62.75</v>
+        <v>64.38</v>
       </c>
       <c r="C304" s="2">
-        <v>88306067426</v>
+        <v>88572971974</v>
       </c>
       <c r="D304" s="3">
-        <v>315</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6179,13 +6179,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="2">
-        <v>126.93</v>
+        <v>129.41</v>
       </c>
       <c r="C305" s="2">
-        <v>169566994226</v>
+        <v>173467343699</v>
       </c>
       <c r="D305" s="3">
-        <v>156</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6193,13 +6193,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="2">
-        <v>65.16</v>
+        <v>66.22</v>
       </c>
       <c r="C306" s="2">
-        <v>58404937322</v>
+        <v>59319068891</v>
       </c>
       <c r="D306" s="3">
-        <v>303</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6207,13 +6207,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="2">
-        <v>39.13</v>
+        <v>38.191</v>
       </c>
       <c r="C307" s="2">
-        <v>19620622720</v>
+        <v>19307731242</v>
       </c>
       <c r="D307" s="3">
-        <v>506</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6221,13 +6221,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="2">
-        <v>220.02</v>
+        <v>221.8</v>
       </c>
       <c r="C308" s="2">
-        <v>15957258859</v>
+        <v>15873093408</v>
       </c>
       <c r="D308" s="3">
-        <v>90</v>
+        <v>892</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6235,13 +6235,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="2">
-        <v>91.61</v>
+        <v>94.92</v>
       </c>
       <c r="C309" s="2">
-        <v>24850028659</v>
+        <v>24722895195</v>
       </c>
       <c r="D309" s="3">
-        <v>216</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6249,13 +6249,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="2">
-        <v>452.51</v>
+        <v>463.14</v>
       </c>
       <c r="C310" s="2">
-        <v>17615003403</v>
+        <v>17346317184</v>
       </c>
       <c r="D310" s="3">
-        <v>43</v>
+        <v>427</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6263,13 +6263,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="2">
-        <v>394.64</v>
+        <v>393.43</v>
       </c>
       <c r="C311" s="2">
-        <v>24545240363</v>
+        <v>24443541683</v>
       </c>
       <c r="D311" s="3">
-        <v>50</v>
+        <v>503</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6277,13 +6277,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="2">
-        <v>136.69</v>
+        <v>137.948</v>
       </c>
       <c r="C312" s="2">
-        <v>71015153982</v>
+        <v>71421336800</v>
       </c>
       <c r="D312" s="3">
-        <v>144</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6291,13 +6291,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="2">
-        <v>211.58</v>
+        <v>207</v>
       </c>
       <c r="C313" s="2">
-        <v>120410733374</v>
+        <v>121098588034</v>
       </c>
       <c r="D313" s="3">
-        <v>93</v>
+        <v>956</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6305,13 +6305,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="2">
-        <v>93.63</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="C314" s="2">
-        <v>49722017673</v>
+        <v>48337881130</v>
       </c>
       <c r="D314" s="3">
-        <v>211</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6322,10 +6322,10 @@
         <v>51.34</v>
       </c>
       <c r="C315" s="2">
-        <v>93619377313</v>
+        <v>94374187637</v>
       </c>
       <c r="D315" s="3">
-        <v>385</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6333,13 +6333,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="2">
-        <v>35.49</v>
+        <v>35.23</v>
       </c>
       <c r="C316" s="2">
-        <v>13863717392</v>
+        <v>13626414901</v>
       </c>
       <c r="D316" s="3">
-        <v>557</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6347,13 +6347,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="2">
-        <v>61.06</v>
+        <v>60</v>
       </c>
       <c r="C317" s="2">
-        <v>39944919583</v>
+        <v>39737420142</v>
       </c>
       <c r="D317" s="3">
-        <v>324</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6361,13 +6361,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="2">
-        <v>80.40000000000001</v>
+        <v>81.56999999999999</v>
       </c>
       <c r="C318" s="2">
-        <v>202215858144</v>
+        <v>202928006926</v>
       </c>
       <c r="D318" s="3">
-        <v>246</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6375,13 +6375,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="2">
-        <v>11.56</v>
+        <v>11.118</v>
       </c>
       <c r="C319" s="2">
-        <v>9450114666</v>
+        <v>9023682881</v>
       </c>
       <c r="D319" s="3">
-        <v>1712</v>
+        <v>17810</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6389,13 +6389,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="2">
-        <v>87.86</v>
+        <v>86.20999999999999</v>
       </c>
       <c r="C320" s="2">
-        <v>163419454265</v>
+        <v>164912296753</v>
       </c>
       <c r="D320" s="3">
-        <v>225</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6403,13 +6403,13 @@
         <v>323</v>
       </c>
       <c r="B321" s="2">
-        <v>480.23</v>
+        <v>482.569</v>
       </c>
       <c r="C321" s="2">
-        <v>39288929278</v>
+        <v>39936643374</v>
       </c>
       <c r="D321" s="3">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6417,13 +6417,13 @@
         <v>324</v>
       </c>
       <c r="B322" s="2">
-        <v>252.06</v>
+        <v>249.99</v>
       </c>
       <c r="C322" s="2">
-        <v>1907286417770</v>
+        <v>1850511400028</v>
       </c>
       <c r="D322" s="3">
-        <v>78</v>
+        <v>792</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6431,13 +6431,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="2">
-        <v>205.37</v>
+        <v>200.92</v>
       </c>
       <c r="C323" s="2">
-        <v>35744204666</v>
+        <v>33761059911</v>
       </c>
       <c r="D323" s="3">
-        <v>96</v>
+        <v>985</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6445,13 +6445,13 @@
         <v>326</v>
       </c>
       <c r="B324" s="2">
-        <v>164</v>
+        <v>167.41</v>
       </c>
       <c r="C324" s="2">
-        <v>21355392337</v>
+        <v>22235598137</v>
       </c>
       <c r="D324" s="3">
-        <v>120</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6459,13 +6459,13 @@
         <v>327</v>
       </c>
       <c r="B325" s="2">
-        <v>1267.6</v>
+        <v>1305.31</v>
       </c>
       <c r="C325" s="2">
-        <v>29001773560</v>
+        <v>30191903517</v>
       </c>
       <c r="D325" s="3">
-        <v>15</v>
+        <v>151</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6473,13 +6473,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="2">
-        <v>81.31</v>
+        <v>80.93000000000001</v>
       </c>
       <c r="C326" s="2">
-        <v>90678693617</v>
+        <v>90766280560</v>
       </c>
       <c r="D326" s="3">
-        <v>243</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6487,13 +6487,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="2">
-        <v>93.89</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C327" s="2">
-        <v>25122640593</v>
+        <v>25438822907</v>
       </c>
       <c r="D327" s="3">
-        <v>210</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6501,13 +6501,13 @@
         <v>330</v>
       </c>
       <c r="B328" s="2">
-        <v>16.187</v>
+        <v>16.21</v>
       </c>
       <c r="C328" s="2">
-        <v>8708533195</v>
+        <v>8932436636</v>
       </c>
       <c r="D328" s="3">
-        <v>1223</v>
+        <v>12215</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6515,13 +6515,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="2">
-        <v>8.5</v>
+        <v>8.51</v>
       </c>
       <c r="C329" s="2">
-        <v>4291216582</v>
+        <v>4294971936</v>
       </c>
       <c r="D329" s="3">
-        <v>2329</v>
+        <v>23269</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6529,13 +6529,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="2">
-        <v>28.04</v>
+        <v>27.91</v>
       </c>
       <c r="C330" s="2">
-        <v>6067790782</v>
+        <v>5832610973</v>
       </c>
       <c r="D330" s="3">
-        <v>706</v>
+        <v>7094</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6543,13 +6543,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="2">
-        <v>165.23</v>
+        <v>163.8</v>
       </c>
       <c r="C331" s="2">
-        <v>26937431180</v>
+        <v>26795766869</v>
       </c>
       <c r="D331" s="3">
-        <v>119</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6557,13 +6557,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="2">
-        <v>74.53</v>
+        <v>75.56</v>
       </c>
       <c r="C332" s="2">
-        <v>151592947282</v>
+        <v>145047668978</v>
       </c>
       <c r="D332" s="3">
-        <v>265</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6571,13 +6571,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="2">
-        <v>72.09999999999999</v>
+        <v>72.09399999999999</v>
       </c>
       <c r="C333" s="2">
-        <v>56307941348</v>
+        <v>56381176986</v>
       </c>
       <c r="D333" s="3">
-        <v>274</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6585,13 +6585,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="2">
-        <v>497.63</v>
+        <v>511.08</v>
       </c>
       <c r="C334" s="2">
-        <v>222496292722</v>
+        <v>220935860797</v>
       </c>
       <c r="D334" s="3">
-        <v>39</v>
+        <v>387</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6599,13 +6599,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="2">
-        <v>26.41</v>
+        <v>26.68</v>
       </c>
       <c r="C335" s="2">
-        <v>10286109169</v>
+        <v>10568838450</v>
       </c>
       <c r="D335" s="3">
-        <v>749</v>
+        <v>7422</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6613,13 +6613,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="2">
-        <v>137.59</v>
+        <v>134.37</v>
       </c>
       <c r="C336" s="2">
-        <v>216028290442</v>
+        <v>218848289484</v>
       </c>
       <c r="D336" s="3">
-        <v>143</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6627,13 +6627,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="2">
-        <v>24.1</v>
+        <v>25.84</v>
       </c>
       <c r="C337" s="2">
-        <v>13906310697</v>
+        <v>14988132028</v>
       </c>
       <c r="D337" s="3">
-        <v>821</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6641,13 +6641,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="2">
-        <v>28.97</v>
+        <v>28.07</v>
       </c>
       <c r="C338" s="2">
-        <v>10383311667</v>
+        <v>10119194652</v>
       </c>
       <c r="D338" s="3">
-        <v>683</v>
+        <v>7054</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6655,13 +6655,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="2">
-        <v>373.9</v>
+        <v>374.11</v>
       </c>
       <c r="C339" s="2">
-        <v>62063951321</v>
+        <v>59884109475</v>
       </c>
       <c r="D339" s="3">
-        <v>52</v>
+        <v>529</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6669,13 +6669,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="2">
-        <v>17.08</v>
+        <v>16.94</v>
       </c>
       <c r="C340" s="2">
-        <v>6782165411</v>
+        <v>6678353979</v>
       </c>
       <c r="D340" s="3">
-        <v>1159</v>
+        <v>11689</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6683,13 +6683,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="2">
-        <v>502.7</v>
+        <v>465.12</v>
       </c>
       <c r="C341" s="2">
-        <v>95794224692</v>
+        <v>90951131682</v>
       </c>
       <c r="D341" s="3">
-        <v>39</v>
+        <v>425</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6697,13 +6697,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="2">
-        <v>36.22</v>
+        <v>35.37</v>
       </c>
       <c r="C342" s="2">
-        <v>8610480819</v>
+        <v>8565609180</v>
       </c>
       <c r="D342" s="3">
-        <v>546</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6711,13 +6711,13 @@
         <v>345</v>
       </c>
       <c r="B343" s="2">
-        <v>292.48</v>
+        <v>299.51</v>
       </c>
       <c r="C343" s="2">
-        <v>74869480181</v>
+        <v>74141644241</v>
       </c>
       <c r="D343" s="3">
-        <v>67</v>
+        <v>661</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6725,13 +6725,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="2">
-        <v>79.72</v>
+        <v>78.8</v>
       </c>
       <c r="C344" s="2">
-        <v>17138766306</v>
+        <v>17273222728</v>
       </c>
       <c r="D344" s="3">
-        <v>248</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6739,13 +6739,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="2">
-        <v>123</v>
+        <v>123.55</v>
       </c>
       <c r="C345" s="2">
-        <v>24777304913</v>
+        <v>26090429859</v>
       </c>
       <c r="D345" s="3">
-        <v>160</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6753,13 +6753,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="2">
-        <v>106.93</v>
+        <v>104.5</v>
       </c>
       <c r="C346" s="2">
-        <v>31342760735</v>
+        <v>30449479326</v>
       </c>
       <c r="D346" s="3">
-        <v>185</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6767,13 +6767,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="2">
-        <v>579.73</v>
+        <v>573.37</v>
       </c>
       <c r="C347" s="2">
-        <v>368217534622</v>
+        <v>351260458629</v>
       </c>
       <c r="D347" s="3">
-        <v>34</v>
+        <v>345</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6781,13 +6781,13 @@
         <v>350</v>
       </c>
       <c r="B348" s="2">
-        <v>5034.52</v>
+        <v>5036</v>
       </c>
       <c r="C348" s="2">
-        <v>18996364839</v>
+        <v>18577984091</v>
       </c>
       <c r="D348" s="3">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6795,13 +6795,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="2">
-        <v>30.38</v>
+        <v>28.95</v>
       </c>
       <c r="C349" s="2">
-        <v>12678898095</v>
+        <v>12792416459</v>
       </c>
       <c r="D349" s="3">
-        <v>651</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6809,13 +6809,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="2">
-        <v>26.34</v>
+        <v>24.67</v>
       </c>
       <c r="C350" s="2">
-        <v>16485615479</v>
+        <v>15204637249</v>
       </c>
       <c r="D350" s="3">
-        <v>751</v>
+        <v>8026</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6823,13 +6823,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="2">
-        <v>28.54</v>
+        <v>27.347</v>
       </c>
       <c r="C351" s="2">
-        <v>16022689114</v>
+        <v>15382122843</v>
       </c>
       <c r="D351" s="3">
-        <v>693</v>
+        <v>7241</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6837,13 +6837,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="2">
-        <v>67.17</v>
+        <v>68.16</v>
       </c>
       <c r="C352" s="2">
-        <v>24741367439</v>
+        <v>24614403883</v>
       </c>
       <c r="D352" s="3">
-        <v>294</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6851,13 +6851,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="2">
-        <v>272.64</v>
+        <v>267.43</v>
       </c>
       <c r="C353" s="2">
-        <v>31060359895</v>
+        <v>31460078811</v>
       </c>
       <c r="D353" s="3">
-        <v>72</v>
+        <v>740</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6865,13 +6865,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="2">
-        <v>55.6</v>
+        <v>53.13</v>
       </c>
       <c r="C354" s="2">
-        <v>24001228868</v>
+        <v>24309478276</v>
       </c>
       <c r="D354" s="3">
-        <v>356</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6879,13 +6879,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="2">
-        <v>87.77</v>
+        <v>84.696</v>
       </c>
       <c r="C355" s="2">
-        <v>18445567909</v>
+        <v>18022878749</v>
       </c>
       <c r="D355" s="3">
-        <v>225</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6893,13 +6893,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="2">
-        <v>78.45</v>
+        <v>80.93000000000001</v>
       </c>
       <c r="C356" s="2">
-        <v>233905246788</v>
+        <v>231678818477</v>
       </c>
       <c r="D356" s="3">
-        <v>252</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6907,13 +6907,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="2">
-        <v>569.5</v>
+        <v>578.39</v>
       </c>
       <c r="C357" s="2">
-        <v>39752127015</v>
+        <v>39353422407</v>
       </c>
       <c r="D357" s="3">
-        <v>34</v>
+        <v>342</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6921,13 +6921,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="2">
-        <v>78.5</v>
+        <v>80.34</v>
       </c>
       <c r="C358" s="2">
-        <v>33657236135</v>
+        <v>34152530918</v>
       </c>
       <c r="D358" s="3">
-        <v>252</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6935,13 +6935,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="2">
-        <v>25.32</v>
+        <v>24.47</v>
       </c>
       <c r="C359" s="2">
-        <v>23756515232</v>
+        <v>23124804172</v>
       </c>
       <c r="D359" s="3">
-        <v>782</v>
+        <v>8092</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6949,13 +6949,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="2">
-        <v>326.82</v>
+        <v>311.29</v>
       </c>
       <c r="C360" s="2">
-        <v>19453431452</v>
+        <v>19383671320</v>
       </c>
       <c r="D360" s="3">
-        <v>60</v>
+        <v>636</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6963,13 +6963,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="2">
-        <v>102.17</v>
+        <v>103.473</v>
       </c>
       <c r="C361" s="2">
-        <v>35792536185</v>
+        <v>36607469128</v>
       </c>
       <c r="D361" s="3">
-        <v>193</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6977,13 +6977,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="2">
-        <v>19.19</v>
+        <v>19.3</v>
       </c>
       <c r="C362" s="2">
-        <v>8263932113</v>
+        <v>8551319971</v>
       </c>
       <c r="D362" s="3">
-        <v>1031</v>
+        <v>10260</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6991,13 +6991,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="2">
-        <v>97.06999999999999</v>
+        <v>98.88</v>
       </c>
       <c r="C363" s="2">
-        <v>34432349125</v>
+        <v>33606382435</v>
       </c>
       <c r="D363" s="3">
-        <v>203</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -7005,13 +7005,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="2">
-        <v>33.65</v>
+        <v>33.06</v>
       </c>
       <c r="C364" s="2">
-        <v>17914906818</v>
+        <v>18490965763</v>
       </c>
       <c r="D364" s="3">
-        <v>588</v>
+        <v>5989</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7019,13 +7019,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="2">
-        <v>63.47</v>
+        <v>63.78</v>
       </c>
       <c r="C365" s="2">
-        <v>31541526103</v>
+        <v>31593940922</v>
       </c>
       <c r="D365" s="3">
-        <v>311</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7033,13 +7033,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="2">
-        <v>150.68</v>
+        <v>150.6</v>
       </c>
       <c r="C366" s="2">
-        <v>210055365616</v>
+        <v>203251973647</v>
       </c>
       <c r="D366" s="3">
-        <v>131</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7047,13 +7047,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="2">
-        <v>40.51</v>
+        <v>41.3</v>
       </c>
       <c r="C367" s="2">
-        <v>224480625618</v>
+        <v>235323445371</v>
       </c>
       <c r="D367" s="3">
-        <v>488</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7061,13 +7061,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="2">
-        <v>67.62</v>
+        <v>68.12</v>
       </c>
       <c r="C368" s="2">
-        <v>18285315093</v>
+        <v>18113342077</v>
       </c>
       <c r="D368" s="3">
-        <v>292</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7075,13 +7075,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="2">
-        <v>142.78</v>
+        <v>141.23</v>
       </c>
       <c r="C369" s="2">
-        <v>349854733310</v>
+        <v>348794150193</v>
       </c>
       <c r="D369" s="3">
-        <v>138</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7089,13 +7089,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="2">
-        <v>109.33</v>
+        <v>107.1</v>
       </c>
       <c r="C370" s="2">
-        <v>64467317256</v>
+        <v>63585553187</v>
       </c>
       <c r="D370" s="3">
-        <v>181</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7103,13 +7103,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="2">
-        <v>322.73</v>
+        <v>321.3</v>
       </c>
       <c r="C371" s="2">
-        <v>40664866809</v>
+        <v>42397719047</v>
       </c>
       <c r="D371" s="3">
-        <v>61</v>
+        <v>616</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7117,13 +7117,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="2">
-        <v>61.31</v>
+        <v>59.15</v>
       </c>
       <c r="C372" s="2">
-        <v>16372351127</v>
+        <v>15390622225</v>
       </c>
       <c r="D372" s="3">
-        <v>322</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7131,13 +7131,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="2">
-        <v>158.79</v>
+        <v>156.32</v>
       </c>
       <c r="C373" s="2">
-        <v>15068315232</v>
+        <v>15248839947</v>
       </c>
       <c r="D373" s="3">
-        <v>124</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7145,13 +7145,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="2">
-        <v>143.04</v>
+        <v>142.77</v>
       </c>
       <c r="C374" s="2">
-        <v>16002529493</v>
+        <v>16030035800</v>
       </c>
       <c r="D374" s="3">
-        <v>138</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7159,13 +7159,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="2">
-        <v>120.58</v>
+        <v>117.9</v>
       </c>
       <c r="C375" s="2">
-        <v>88636110218</v>
+        <v>85831562539</v>
       </c>
       <c r="D375" s="3">
-        <v>164</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7173,13 +7173,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="2">
-        <v>101.76</v>
+        <v>102.02</v>
       </c>
       <c r="C376" s="2">
-        <v>152235044180</v>
+        <v>159577569812</v>
       </c>
       <c r="D376" s="3">
-        <v>194</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7187,13 +7187,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="2">
-        <v>197.03</v>
+        <v>203.74</v>
       </c>
       <c r="C377" s="2">
-        <v>83732609314</v>
+        <v>83894453009</v>
       </c>
       <c r="D377" s="3">
-        <v>100</v>
+        <v>971</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7201,13 +7201,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="2">
-        <v>69.84999999999999</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="C378" s="2">
-        <v>11741060292</v>
+        <v>11587364111</v>
       </c>
       <c r="D378" s="3">
-        <v>283</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7215,13 +7215,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="2">
-        <v>89.94</v>
+        <v>86.62</v>
       </c>
       <c r="C379" s="2">
-        <v>9957105793</v>
+        <v>10052193160</v>
       </c>
       <c r="D379" s="3">
-        <v>220</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7229,13 +7229,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="2">
-        <v>183.68</v>
+        <v>186.02</v>
       </c>
       <c r="C380" s="2">
-        <v>43591926942</v>
+        <v>43360148722</v>
       </c>
       <c r="D380" s="3">
-        <v>107</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7243,13 +7243,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="2">
-        <v>30.44</v>
+        <v>29.618</v>
       </c>
       <c r="C381" s="2">
-        <v>22868330639</v>
+        <v>22613423141</v>
       </c>
       <c r="D381" s="3">
-        <v>650</v>
+        <v>6685</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7257,13 +7257,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="2">
-        <v>45.32</v>
+        <v>47.315</v>
       </c>
       <c r="C382" s="2">
-        <v>5972399071</v>
+        <v>6053946833</v>
       </c>
       <c r="D382" s="3">
-        <v>436</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7271,13 +7271,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="2">
-        <v>105.18</v>
+        <v>110.63</v>
       </c>
       <c r="C383" s="2">
-        <v>41522026250</v>
+        <v>44004146089</v>
       </c>
       <c r="D383" s="3">
-        <v>188</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7285,13 +7285,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="2">
-        <v>282.65</v>
+        <v>281.82</v>
       </c>
       <c r="C384" s="2">
-        <v>49048984375</v>
+        <v>50211737635</v>
       </c>
       <c r="D384" s="3">
-        <v>70</v>
+        <v>702</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7299,13 +7299,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="2">
-        <v>84.64</v>
+        <v>87</v>
       </c>
       <c r="C385" s="2">
-        <v>38288369781</v>
+        <v>37949698486</v>
       </c>
       <c r="D385" s="3">
-        <v>233</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7313,13 +7313,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="2">
-        <v>116.38</v>
+        <v>113.01</v>
       </c>
       <c r="C386" s="2">
-        <v>8054760426</v>
+        <v>7961066088</v>
       </c>
       <c r="D386" s="3">
-        <v>170</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7327,13 +7327,13 @@
         <v>389</v>
       </c>
       <c r="B387" s="2">
-        <v>102.78</v>
+        <v>99.45</v>
       </c>
       <c r="C387" s="2">
-        <v>14323269199</v>
+        <v>13835985786</v>
       </c>
       <c r="D387" s="3">
-        <v>192</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7341,13 +7341,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="2">
-        <v>160</v>
+        <v>159.03</v>
       </c>
       <c r="C388" s="2">
-        <v>35565229911</v>
+        <v>37356747957</v>
       </c>
       <c r="D388" s="3">
-        <v>123</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7355,13 +7355,13 @@
         <v>391</v>
       </c>
       <c r="B389" s="2">
-        <v>258.6</v>
+        <v>250</v>
       </c>
       <c r="C389" s="2">
-        <v>304285001250</v>
+        <v>297878299275</v>
       </c>
       <c r="D389" s="3">
-        <v>76</v>
+        <v>792</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7369,13 +7369,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="2">
-        <v>133.16</v>
+        <v>128.597</v>
       </c>
       <c r="C390" s="2">
-        <v>149450470179</v>
+        <v>149472372391</v>
       </c>
       <c r="D390" s="3">
-        <v>148</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7383,13 +7383,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="2">
-        <v>180.02</v>
+        <v>168.89</v>
       </c>
       <c r="C391" s="2">
-        <v>19507938927</v>
+        <v>19880528315</v>
       </c>
       <c r="D391" s="3">
-        <v>109</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7397,13 +7397,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="2">
-        <v>84.18000000000001</v>
+        <v>79.13</v>
       </c>
       <c r="C392" s="2">
-        <v>21572433954</v>
+        <v>20535055881</v>
       </c>
       <c r="D392" s="3">
-        <v>235</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7411,13 +7411,13 @@
         <v>395</v>
       </c>
       <c r="B393" s="2">
-        <v>267.08</v>
+        <v>281.61</v>
       </c>
       <c r="C393" s="2">
-        <v>13618652902</v>
+        <v>13918769242</v>
       </c>
       <c r="D393" s="3">
-        <v>74</v>
+        <v>703</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7425,13 +7425,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="2">
-        <v>67.20999999999999</v>
+        <v>64.58</v>
       </c>
       <c r="C394" s="2">
-        <v>11364349913</v>
+        <v>11142545001</v>
       </c>
       <c r="D394" s="3">
-        <v>294</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7439,13 +7439,13 @@
         <v>397</v>
       </c>
       <c r="B395" s="2">
-        <v>515.73</v>
+        <v>527.0599999999999</v>
       </c>
       <c r="C395" s="2">
-        <v>54565020363</v>
+        <v>55881296179</v>
       </c>
       <c r="D395" s="3">
-        <v>38</v>
+        <v>375</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7453,13 +7453,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="2">
-        <v>22.87</v>
+        <v>23.4</v>
       </c>
       <c r="C396" s="2">
-        <v>21934512190</v>
+        <v>22227663118</v>
       </c>
       <c r="D396" s="3">
-        <v>865</v>
+        <v>8462</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7467,13 +7467,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="2">
-        <v>90.91</v>
+        <v>88.708</v>
       </c>
       <c r="C397" s="2">
-        <v>10146320407</v>
+        <v>10360876768</v>
       </c>
       <c r="D397" s="3">
-        <v>217</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7481,13 +7481,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="2">
-        <v>138.56</v>
+        <v>133.1</v>
       </c>
       <c r="C398" s="2">
-        <v>19142639740</v>
+        <v>18334703854</v>
       </c>
       <c r="D398" s="3">
-        <v>142</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7495,13 +7495,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="2">
-        <v>138.08</v>
+        <v>138.49</v>
       </c>
       <c r="C399" s="2">
-        <v>9985540982</v>
+        <v>10001079559</v>
       </c>
       <c r="D399" s="3">
-        <v>143</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7509,13 +7509,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="2">
-        <v>199.92</v>
+        <v>200.12</v>
       </c>
       <c r="C400" s="2">
-        <v>29192748397</v>
+        <v>29770399048</v>
       </c>
       <c r="D400" s="3">
-        <v>99</v>
+        <v>989</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7523,13 +7523,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="2">
-        <v>268.59</v>
+        <v>267.27</v>
       </c>
       <c r="C401" s="2">
-        <v>31680715271</v>
+        <v>30998095612</v>
       </c>
       <c r="D401" s="3">
-        <v>73</v>
+        <v>740</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7537,13 +7537,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="2">
-        <v>37.64</v>
+        <v>36.56</v>
       </c>
       <c r="C402" s="2">
-        <v>18743785317</v>
+        <v>18267208625</v>
       </c>
       <c r="D402" s="3">
-        <v>526</v>
+        <v>5416</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7551,13 +7551,13 @@
         <v>405</v>
       </c>
       <c r="B403" s="2">
-        <v>443.7</v>
+        <v>439.39</v>
       </c>
       <c r="C403" s="2">
-        <v>47665527526</v>
+        <v>47076389782</v>
       </c>
       <c r="D403" s="3">
-        <v>44</v>
+        <v>450</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7565,13 +7565,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="2">
-        <v>130.99</v>
+        <v>131.56</v>
       </c>
       <c r="C404" s="2">
-        <v>47527046145</v>
+        <v>47157467713</v>
       </c>
       <c r="D404" s="3">
-        <v>151</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7579,13 +7579,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="2">
-        <v>115</v>
+        <v>114.81</v>
       </c>
       <c r="C405" s="2">
-        <v>35322872175</v>
+        <v>36148670265</v>
       </c>
       <c r="D405" s="3">
-        <v>172</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7593,13 +7593,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="2">
-        <v>85.11</v>
+        <v>86.621</v>
       </c>
       <c r="C406" s="2">
-        <v>130111051989</v>
+        <v>129663762794</v>
       </c>
       <c r="D406" s="3">
-        <v>232</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7607,13 +7607,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="2">
-        <v>295.62</v>
+        <v>297.67</v>
       </c>
       <c r="C407" s="2">
-        <v>32015469565</v>
+        <v>31249193588</v>
       </c>
       <c r="D407" s="3">
-        <v>66</v>
+        <v>665</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7621,13 +7621,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="2">
-        <v>117.29</v>
+        <v>112.51</v>
       </c>
       <c r="C408" s="2">
-        <v>138398144731</v>
+        <v>136332220112</v>
       </c>
       <c r="D408" s="3">
-        <v>168</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7635,13 +7635,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="2">
-        <v>71.56999999999999</v>
+        <v>73.97</v>
       </c>
       <c r="C409" s="2">
-        <v>137203517213</v>
+        <v>134192677170</v>
       </c>
       <c r="D409" s="3">
-        <v>276</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7649,13 +7649,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="2">
-        <v>57.45</v>
+        <v>57.65</v>
       </c>
       <c r="C410" s="2">
-        <v>8645151274</v>
+        <v>8726265474</v>
       </c>
       <c r="D410" s="3">
-        <v>344</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7663,13 +7663,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="2">
-        <v>297.21</v>
+        <v>295.81</v>
       </c>
       <c r="C411" s="2">
-        <v>76776597598</v>
+        <v>78469374368</v>
       </c>
       <c r="D411" s="3">
-        <v>66</v>
+        <v>669</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7677,13 +7677,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="2">
-        <v>598.1</v>
+        <v>588.1799999999999</v>
       </c>
       <c r="C412" s="2">
-        <v>30597218125</v>
+        <v>31015171471</v>
       </c>
       <c r="D412" s="3">
-        <v>33</v>
+        <v>336</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7691,13 +7691,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="2">
-        <v>140.83</v>
+        <v>139.19</v>
       </c>
       <c r="C413" s="2">
-        <v>15048078315</v>
+        <v>14997496867</v>
       </c>
       <c r="D413" s="3">
-        <v>140</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7705,13 +7705,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="2">
-        <v>31.36</v>
+        <v>32.28</v>
       </c>
       <c r="C414" s="2">
-        <v>45194571164</v>
+        <v>46574670217</v>
       </c>
       <c r="D414" s="3">
-        <v>631</v>
+        <v>6134</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7719,13 +7719,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="2">
-        <v>73.91</v>
+        <v>73.7</v>
       </c>
       <c r="C415" s="2">
-        <v>5221545801</v>
+        <v>5037925067</v>
       </c>
       <c r="D415" s="3">
-        <v>267</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7733,13 +7733,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="2">
-        <v>253.84</v>
+        <v>261.1</v>
       </c>
       <c r="C416" s="2">
-        <v>13814502975</v>
+        <v>13909928285</v>
       </c>
       <c r="D416" s="3">
-        <v>78</v>
+        <v>758</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7747,13 +7747,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="2">
-        <v>237.78</v>
+        <v>238.46</v>
       </c>
       <c r="C417" s="2">
-        <v>36587186886</v>
+        <v>35414473839</v>
       </c>
       <c r="D417" s="3">
-        <v>83</v>
+        <v>830</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7761,13 +7761,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="2">
-        <v>67.3</v>
+        <v>67.77</v>
       </c>
       <c r="C418" s="2">
-        <v>72073459454</v>
+        <v>71037408461</v>
       </c>
       <c r="D418" s="3">
-        <v>294</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7775,13 +7775,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="2">
-        <v>126.42</v>
+        <v>120.535</v>
       </c>
       <c r="C419" s="2">
-        <v>40982665120</v>
+        <v>40499018045</v>
       </c>
       <c r="D419" s="3">
-        <v>156</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7789,13 +7789,13 @@
         <v>422</v>
       </c>
       <c r="B420" s="2">
-        <v>381.55</v>
+        <v>388</v>
       </c>
       <c r="C420" s="2">
-        <v>91935130400</v>
+        <v>95574710162</v>
       </c>
       <c r="D420" s="3">
-        <v>51</v>
+        <v>510</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7803,13 +7803,13 @@
         <v>423</v>
       </c>
       <c r="B421" s="2">
-        <v>138.6</v>
+        <v>143.9</v>
       </c>
       <c r="C421" s="2">
-        <v>42031471236</v>
+        <v>42024283263</v>
       </c>
       <c r="D421" s="3">
-        <v>142</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7817,13 +7817,13 @@
         <v>424</v>
       </c>
       <c r="B422" s="2">
-        <v>206.57</v>
+        <v>203.67</v>
       </c>
       <c r="C422" s="2">
-        <v>17950596896</v>
+        <v>17321203066</v>
       </c>
       <c r="D422" s="3">
-        <v>95</v>
+        <v>972</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7831,13 +7831,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="2">
-        <v>87.59999999999999</v>
+        <v>87.15000000000001</v>
       </c>
       <c r="C423" s="2">
-        <v>30944598174</v>
+        <v>30433053174</v>
       </c>
       <c r="D423" s="3">
-        <v>226</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7845,13 +7845,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="2">
-        <v>91.01000000000001</v>
+        <v>91.81</v>
       </c>
       <c r="C424" s="2">
-        <v>20624529749</v>
+        <v>20399291692</v>
       </c>
       <c r="D424" s="3">
-        <v>217</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7859,13 +7859,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="2">
-        <v>243.66</v>
+        <v>243.48</v>
       </c>
       <c r="C425" s="2">
-        <v>45411354180</v>
+        <v>46986555861</v>
       </c>
       <c r="D425" s="3">
-        <v>81</v>
+        <v>813</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7873,13 +7873,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="2">
-        <v>220.66</v>
+        <v>227.36</v>
       </c>
       <c r="C426" s="2">
-        <v>36657136693</v>
+        <v>35454091909</v>
       </c>
       <c r="D426" s="3">
-        <v>89</v>
+        <v>870</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7887,13 +7887,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="2">
-        <v>171.78</v>
+        <v>165.49</v>
       </c>
       <c r="C427" s="2">
-        <v>28620761627</v>
+        <v>27663185940</v>
       </c>
       <c r="D427" s="3">
-        <v>115</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7901,13 +7901,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="2">
-        <v>46.46</v>
+        <v>47.442</v>
       </c>
       <c r="C428" s="2">
-        <v>27368390373</v>
+        <v>26822951720</v>
       </c>
       <c r="D428" s="3">
-        <v>426</v>
+        <v>4173</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7915,13 +7915,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="2">
-        <v>263.7</v>
+        <v>251.5</v>
       </c>
       <c r="C429" s="2">
-        <v>97290595315</v>
+        <v>97008811937</v>
       </c>
       <c r="D429" s="3">
-        <v>75</v>
+        <v>787</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7929,13 +7929,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="2">
-        <v>86.56999999999999</v>
+        <v>84.45</v>
       </c>
       <c r="C430" s="2">
-        <v>44074751440</v>
+        <v>43525237168</v>
       </c>
       <c r="D430" s="3">
-        <v>228</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7943,13 +7943,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="2">
-        <v>33.16</v>
+        <v>32.69</v>
       </c>
       <c r="C431" s="2">
-        <v>237084106085</v>
+        <v>238199481464</v>
       </c>
       <c r="D431" s="3">
-        <v>597</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7957,13 +7957,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="2">
-        <v>59.8</v>
+        <v>59.24</v>
       </c>
       <c r="C432" s="2">
-        <v>12765230477</v>
+        <v>11909338719</v>
       </c>
       <c r="D432" s="3">
-        <v>331</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7971,13 +7971,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="2">
-        <v>606.48</v>
+        <v>614.8</v>
       </c>
       <c r="C433" s="2">
-        <v>34208356017</v>
+        <v>33910193595</v>
       </c>
       <c r="D433" s="3">
-        <v>32</v>
+        <v>322</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7985,13 +7985,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="2">
-        <v>443.62</v>
+        <v>421.774</v>
       </c>
       <c r="C434" s="2">
-        <v>16466897901</v>
+        <v>15774009645</v>
       </c>
       <c r="D434" s="3">
-        <v>44</v>
+        <v>469</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7999,13 +7999,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="2">
-        <v>137.06</v>
+        <v>136.43</v>
       </c>
       <c r="C435" s="2">
-        <v>45533528083</v>
+        <v>44350906914</v>
       </c>
       <c r="D435" s="3">
-        <v>144</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8013,13 +8013,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="2">
-        <v>61.71</v>
+        <v>61.87</v>
       </c>
       <c r="C436" s="2">
-        <v>84981153167</v>
+        <v>85884189844</v>
       </c>
       <c r="D436" s="3">
-        <v>320</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8027,13 +8027,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="2">
-        <v>412.7</v>
+        <v>394.53</v>
       </c>
       <c r="C437" s="2">
-        <v>19320842424</v>
+        <v>18690718924</v>
       </c>
       <c r="D437" s="3">
-        <v>47</v>
+        <v>501</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8041,13 +8041,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="2">
-        <v>218.29</v>
+        <v>214.1</v>
       </c>
       <c r="C438" s="2">
-        <v>106315006605</v>
+        <v>106919743714</v>
       </c>
       <c r="D438" s="3">
-        <v>90</v>
+        <v>924</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8055,13 +8055,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="2">
-        <v>137.89</v>
+        <v>134.7</v>
       </c>
       <c r="C439" s="2">
-        <v>16252784199</v>
+        <v>16097386004</v>
       </c>
       <c r="D439" s="3">
-        <v>143</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8069,13 +8069,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="2">
-        <v>75.29000000000001</v>
+        <v>74.017</v>
       </c>
       <c r="C440" s="2">
-        <v>90547332695</v>
+        <v>88795068521</v>
       </c>
       <c r="D440" s="3">
-        <v>263</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8083,13 +8083,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="2">
-        <v>480</v>
+        <v>466.37</v>
       </c>
       <c r="C441" s="2">
-        <v>185745902731</v>
+        <v>180700098388</v>
       </c>
       <c r="D441" s="3">
-        <v>41</v>
+        <v>424</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8097,13 +8097,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="2">
-        <v>141</v>
+        <v>143.23</v>
       </c>
       <c r="C442" s="2">
-        <v>176387890686</v>
+        <v>175741087162</v>
       </c>
       <c r="D442" s="3">
-        <v>140</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8111,13 +8111,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="2">
-        <v>47.22</v>
+        <v>45.91</v>
       </c>
       <c r="C443" s="2">
-        <v>13385886771</v>
+        <v>13266246512</v>
       </c>
       <c r="D443" s="3">
-        <v>419</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8125,13 +8125,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="2">
-        <v>192.02</v>
+        <v>192.3</v>
       </c>
       <c r="C444" s="2">
-        <v>42996866103</v>
+        <v>43730936386</v>
       </c>
       <c r="D444" s="3">
-        <v>103</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8139,13 +8139,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="2">
-        <v>163.82</v>
+        <v>159.14</v>
       </c>
       <c r="C445" s="2">
-        <v>40899909953</v>
+        <v>40940804984</v>
       </c>
       <c r="D445" s="3">
-        <v>120</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8153,13 +8153,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="2">
-        <v>191.57</v>
+        <v>190.28</v>
       </c>
       <c r="C446" s="2">
-        <v>23006499614</v>
+        <v>22001659957</v>
       </c>
       <c r="D446" s="3">
-        <v>103</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8167,13 +8167,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="2">
-        <v>82.81999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="C447" s="2">
-        <v>28965318720</v>
+        <v>30023291377</v>
       </c>
       <c r="D447" s="3">
-        <v>239</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8181,13 +8181,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="2">
-        <v>183.43</v>
+        <v>184.091</v>
       </c>
       <c r="C448" s="2">
-        <v>44118475601</v>
+        <v>45493350622</v>
       </c>
       <c r="D448" s="3">
-        <v>107</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8195,13 +8195,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="2">
-        <v>169.88</v>
+        <v>168.46</v>
       </c>
       <c r="C449" s="2">
-        <v>20039700379</v>
+        <v>18842029236</v>
       </c>
       <c r="D449" s="3">
-        <v>116</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8209,13 +8209,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="2">
-        <v>55.15</v>
+        <v>50.73</v>
       </c>
       <c r="C450" s="2">
-        <v>42254270717</v>
+        <v>40820519616</v>
       </c>
       <c r="D450" s="3">
-        <v>359</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8223,13 +8223,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="2">
-        <v>192.1</v>
+        <v>184.42</v>
       </c>
       <c r="C451" s="2">
-        <v>174367280830</v>
+        <v>167812831003</v>
       </c>
       <c r="D451" s="3">
-        <v>103</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8237,13 +8237,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="2">
-        <v>69.56999999999999</v>
+        <v>69.39</v>
       </c>
       <c r="C452" s="2">
-        <v>15531059063</v>
+        <v>15653578790</v>
       </c>
       <c r="D452" s="3">
-        <v>284</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8251,13 +8251,13 @@
         <v>455</v>
       </c>
       <c r="B453" s="2">
-        <v>402.01</v>
+        <v>392.4</v>
       </c>
       <c r="C453" s="2">
-        <v>16249705286</v>
+        <v>16244139874</v>
       </c>
       <c r="D453" s="3">
-        <v>49</v>
+        <v>504</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8265,13 +8265,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="2">
-        <v>19.44</v>
+        <v>19.254</v>
       </c>
       <c r="C454" s="2">
-        <v>10092811334</v>
+        <v>9788116142</v>
       </c>
       <c r="D454" s="3">
-        <v>1018</v>
+        <v>10284</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8279,13 +8279,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="2">
-        <v>23.51</v>
+        <v>22.9</v>
       </c>
       <c r="C455" s="2">
-        <v>9937697702</v>
+        <v>9553781184</v>
       </c>
       <c r="D455" s="3">
-        <v>842</v>
+        <v>8647</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8293,13 +8293,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="2">
-        <v>54</v>
+        <v>53.66</v>
       </c>
       <c r="C456" s="2">
-        <v>17841180955</v>
+        <v>17190088745</v>
       </c>
       <c r="D456" s="3">
-        <v>366</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8307,13 +8307,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="2">
-        <v>46.29</v>
+        <v>47.27</v>
       </c>
       <c r="C457" s="2">
-        <v>14108230659</v>
+        <v>14324170574</v>
       </c>
       <c r="D457" s="3">
-        <v>427</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8321,13 +8321,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="2">
-        <v>161.04</v>
+        <v>160.21</v>
       </c>
       <c r="C458" s="2">
-        <v>13286393398</v>
+        <v>13938177003</v>
       </c>
       <c r="D458" s="3">
-        <v>122</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8335,13 +8335,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="2">
-        <v>325.3</v>
+        <v>316.76</v>
       </c>
       <c r="C459" s="2">
-        <v>18074067776</v>
+        <v>17677355063</v>
       </c>
       <c r="D459" s="3">
-        <v>60</v>
+        <v>625</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8349,13 +8349,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="2">
-        <v>419.2</v>
+        <v>412.688</v>
       </c>
       <c r="C460" s="2">
-        <v>397443069458</v>
+        <v>389164621871</v>
       </c>
       <c r="D460" s="3">
-        <v>47</v>
+        <v>479</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8363,13 +8363,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="2">
-        <v>31.15</v>
+        <v>31.44</v>
       </c>
       <c r="C461" s="2">
-        <v>6153905822</v>
+        <v>6469783154</v>
       </c>
       <c r="D461" s="3">
-        <v>635</v>
+        <v>6298</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8377,13 +8377,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="2">
-        <v>227.34</v>
+        <v>232.55</v>
       </c>
       <c r="C462" s="2">
-        <v>157097745118</v>
+        <v>152556126713</v>
       </c>
       <c r="D462" s="3">
-        <v>87</v>
+        <v>851</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8391,13 +8391,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="2">
-        <v>214.52</v>
+        <v>225.68</v>
       </c>
       <c r="C463" s="2">
-        <v>185995775246</v>
+        <v>187456252932</v>
       </c>
       <c r="D463" s="3">
-        <v>92</v>
+        <v>877</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8405,13 +8405,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="2">
-        <v>348.88</v>
+        <v>339.631</v>
       </c>
       <c r="C464" s="2">
-        <v>25593577214</v>
+        <v>24406962305</v>
       </c>
       <c r="D464" s="3">
-        <v>56</v>
+        <v>583</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8419,13 +8419,13 @@
         <v>467</v>
       </c>
       <c r="B465" s="2">
-        <v>61.61</v>
+        <v>61.96</v>
       </c>
       <c r="C465" s="2">
-        <v>91904507477</v>
+        <v>94961597338</v>
       </c>
       <c r="D465" s="3">
-        <v>321</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8433,13 +8433,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="2">
-        <v>228.58</v>
+        <v>228.11</v>
       </c>
       <c r="C466" s="2">
-        <v>500243197841</v>
+        <v>518217936216</v>
       </c>
       <c r="D466" s="3">
-        <v>86</v>
+        <v>868</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8447,13 +8447,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="2">
-        <v>181.66</v>
+        <v>181.38</v>
       </c>
       <c r="C467" s="2">
-        <v>16620559603</v>
+        <v>16881832733</v>
       </c>
       <c r="D467" s="3">
-        <v>109</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8461,13 +8461,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="2">
-        <v>88.40000000000001</v>
+        <v>85.29600000000001</v>
       </c>
       <c r="C468" s="2">
-        <v>35085733071</v>
+        <v>33184994089</v>
       </c>
       <c r="D468" s="3">
-        <v>224</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8475,13 +8475,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="2">
-        <v>39.48</v>
+        <v>39.826</v>
       </c>
       <c r="C469" s="2">
-        <v>26384054492</v>
+        <v>25881409855</v>
       </c>
       <c r="D469" s="3">
-        <v>501</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8489,13 +8489,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="2">
-        <v>79.25</v>
+        <v>80.23999999999999</v>
       </c>
       <c r="C470" s="2">
-        <v>31768768063</v>
+        <v>33799087922</v>
       </c>
       <c r="D470" s="3">
-        <v>249</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8503,13 +8503,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="2">
-        <v>196.62</v>
+        <v>196.18</v>
       </c>
       <c r="C471" s="2">
-        <v>26421387175</v>
+        <v>26237286209</v>
       </c>
       <c r="D471" s="3">
-        <v>100</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8517,13 +8517,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="2">
-        <v>47.28</v>
+        <v>46.33</v>
       </c>
       <c r="C472" s="2">
-        <v>8888415664</v>
+        <v>8660176844</v>
       </c>
       <c r="D472" s="3">
-        <v>418</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8531,13 +8531,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="2">
-        <v>178.68</v>
+        <v>176.09</v>
       </c>
       <c r="C473" s="2">
-        <v>28430270645</v>
+        <v>28645674567</v>
       </c>
       <c r="D473" s="3">
-        <v>110</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8545,13 +8545,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="2">
-        <v>228.37</v>
+        <v>220.31</v>
       </c>
       <c r="C474" s="2">
-        <v>24950961436</v>
+        <v>25377418592</v>
       </c>
       <c r="D474" s="3">
-        <v>86</v>
+        <v>898</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8559,13 +8559,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="2">
-        <v>219</v>
+        <v>220.76</v>
       </c>
       <c r="C475" s="2">
-        <v>55825448340</v>
+        <v>55954909184</v>
       </c>
       <c r="D475" s="3">
-        <v>90</v>
+        <v>896</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8573,13 +8573,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="2">
-        <v>55.26</v>
+        <v>55.68</v>
       </c>
       <c r="C476" s="2">
-        <v>21019134134</v>
+        <v>21146085169</v>
       </c>
       <c r="D476" s="3">
-        <v>358</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8587,13 +8587,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="2">
-        <v>61.45</v>
+        <v>60.526</v>
       </c>
       <c r="C477" s="2">
-        <v>245771395582</v>
+        <v>245752943845</v>
       </c>
       <c r="D477" s="3">
-        <v>322</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8601,13 +8601,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="2">
-        <v>81.42</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="C478" s="2">
-        <v>15224620580</v>
+        <v>15645928822</v>
       </c>
       <c r="D478" s="3">
-        <v>243</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8615,13 +8615,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="2">
-        <v>330.92</v>
+        <v>322.14</v>
       </c>
       <c r="C479" s="2">
-        <v>19720763289</v>
+        <v>19856636239</v>
       </c>
       <c r="D479" s="3">
-        <v>59</v>
+        <v>614</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8629,13 +8629,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="2">
-        <v>56.56</v>
+        <v>56.85</v>
       </c>
       <c r="C480" s="2">
-        <v>46953966511</v>
+        <v>47107336463</v>
       </c>
       <c r="D480" s="3">
-        <v>350</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8643,13 +8643,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="2">
-        <v>68.89</v>
+        <v>67.577</v>
       </c>
       <c r="C481" s="2">
-        <v>21688638662</v>
+        <v>20525769407</v>
       </c>
       <c r="D481" s="3">
-        <v>287</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8657,13 +8657,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="2">
-        <v>100.26</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="C482" s="2">
-        <v>30869948152</v>
+        <v>31260960843</v>
       </c>
       <c r="D482" s="3">
-        <v>197</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8671,13 +8671,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="2">
-        <v>76.56999999999999</v>
+        <v>74.26000000000001</v>
       </c>
       <c r="C483" s="2">
-        <v>31110404514</v>
+        <v>30715925204</v>
       </c>
       <c r="D483" s="3">
-        <v>258</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8685,13 +8685,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="2">
-        <v>47.8</v>
+        <v>48.45</v>
       </c>
       <c r="C484" s="2">
-        <v>190393559726</v>
+        <v>195189008891</v>
       </c>
       <c r="D484" s="3">
-        <v>414</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8699,13 +8699,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="2">
-        <v>252.03</v>
+        <v>250.6</v>
       </c>
       <c r="C485" s="2">
-        <v>15568612670</v>
+        <v>15914106406</v>
       </c>
       <c r="D485" s="3">
-        <v>78</v>
+        <v>790</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8713,13 +8713,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="2">
-        <v>265.75</v>
+        <v>269.6</v>
       </c>
       <c r="C486" s="2">
-        <v>35273166392</v>
+        <v>35176711580</v>
       </c>
       <c r="D486" s="3">
-        <v>74</v>
+        <v>734</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8727,13 +8727,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="2">
-        <v>145.1</v>
+        <v>148.69</v>
       </c>
       <c r="C487" s="2">
-        <v>60057467954</v>
+        <v>62360010069</v>
       </c>
       <c r="D487" s="3">
-        <v>136</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8741,13 +8741,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="2">
-        <v>25.98</v>
+        <v>25.58</v>
       </c>
       <c r="C488" s="2">
-        <v>32669493523</v>
+        <v>30924173609</v>
       </c>
       <c r="D488" s="3">
-        <v>762</v>
+        <v>7741</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8755,13 +8755,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="2">
-        <v>145.73</v>
+        <v>143.11</v>
       </c>
       <c r="C489" s="2">
-        <v>409873275992</v>
+        <v>399879495225</v>
       </c>
       <c r="D489" s="3">
-        <v>135</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8769,13 +8769,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="2">
-        <v>80.79000000000001</v>
+        <v>82.97</v>
       </c>
       <c r="C490" s="2">
-        <v>14333808434</v>
+        <v>14603693950</v>
       </c>
       <c r="D490" s="3">
-        <v>245</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8783,13 +8783,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="2">
-        <v>61.34</v>
+        <v>62.25</v>
       </c>
       <c r="C491" s="2">
-        <v>16810415221</v>
+        <v>16152046648</v>
       </c>
       <c r="D491" s="3">
-        <v>322</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8797,13 +8797,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="2">
-        <v>345.83</v>
+        <v>346.23</v>
       </c>
       <c r="C492" s="2">
-        <v>25232971804</v>
+        <v>25198050475</v>
       </c>
       <c r="D492" s="3">
-        <v>57</v>
+        <v>571</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -8811,13 +8811,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="2">
-        <v>25.9</v>
+        <v>25.542</v>
       </c>
       <c r="C493" s="2">
-        <v>10624486281</v>
+        <v>10348100474</v>
       </c>
       <c r="D493" s="3">
-        <v>764</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8825,13 +8825,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="2">
-        <v>39.96</v>
+        <v>38.49</v>
       </c>
       <c r="C494" s="2">
-        <v>31139072238</v>
+        <v>29194359524</v>
       </c>
       <c r="D494" s="3">
-        <v>495</v>
+        <v>5144</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8839,13 +8839,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="2">
-        <v>130</v>
+        <v>124.74</v>
       </c>
       <c r="C495" s="2">
-        <v>14634988286</v>
+        <v>14775806221</v>
       </c>
       <c r="D495" s="3">
-        <v>152</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8853,13 +8853,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="2">
-        <v>73.48</v>
+        <v>73.04000000000001</v>
       </c>
       <c r="C496" s="2">
-        <v>39768033709</v>
+        <v>38615862590</v>
       </c>
       <c r="D496" s="3">
-        <v>269</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8867,13 +8867,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="2">
-        <v>127.09</v>
+        <v>117.46</v>
       </c>
       <c r="C497" s="2">
-        <v>30364202395</v>
+        <v>28439662010</v>
       </c>
       <c r="D497" s="3">
-        <v>155</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8881,13 +8881,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="2">
-        <v>60.74</v>
+        <v>60.9</v>
       </c>
       <c r="C498" s="2">
-        <v>259937269769</v>
+        <v>256171289100</v>
       </c>
       <c r="D498" s="3">
-        <v>326</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8895,13 +8895,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="2">
-        <v>66.90000000000001</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="C499" s="2">
-        <v>14975748409</v>
+        <v>14936418957</v>
       </c>
       <c r="D499" s="3">
-        <v>295</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8909,13 +8909,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="2">
-        <v>24.04</v>
+        <v>24.136</v>
       </c>
       <c r="C500" s="2">
-        <v>4639501650</v>
+        <v>4516295704</v>
       </c>
       <c r="D500" s="3">
-        <v>823</v>
+        <v>8204</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8923,13 +8923,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="2">
-        <v>121.78</v>
+        <v>116.57</v>
       </c>
       <c r="C501" s="2">
-        <v>21865966059</v>
+        <v>21469266500</v>
       </c>
       <c r="D501" s="3">
-        <v>162</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8937,13 +8937,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="2">
-        <v>124.55</v>
+        <v>122.617</v>
       </c>
       <c r="C502" s="2">
-        <v>35874982541</v>
+        <v>35473907876</v>
       </c>
       <c r="D502" s="3">
-        <v>158</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8951,13 +8951,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="2">
-        <v>169.68</v>
+        <v>170.78</v>
       </c>
       <c r="C503" s="2">
-        <v>35090276471</v>
+        <v>34744336053</v>
       </c>
       <c r="D503" s="3">
-        <v>116</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8965,13 +8965,13 @@
         <v>506</v>
       </c>
       <c r="B504" s="2">
-        <v>509.86</v>
+        <v>478.54</v>
       </c>
       <c r="C504" s="2">
-        <v>26142570732</v>
+        <v>25563960201</v>
       </c>
       <c r="D504" s="3">
-        <v>38</v>
+        <v>413</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8979,13 +8979,13 @@
         <v>507</v>
       </c>
       <c r="B505" s="2">
-        <v>58.61</v>
+        <v>61.354</v>
       </c>
       <c r="C505" s="2">
-        <v>9965369014</v>
+        <v>9981108118</v>
       </c>
       <c r="D505" s="3">
-        <v>337</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -8993,13 +8993,13 @@
         <v>508</v>
       </c>
       <c r="B506" s="2">
-        <v>176.38</v>
+        <v>177.15</v>
       </c>
       <c r="C506" s="2">
-        <v>81768499294</v>
+        <v>83081404163</v>
       </c>
       <c r="D506" s="3">
-        <v>112</v>
+        <v>1117</v>
       </c>
     </row>
   </sheetData>
